--- a/nibrs/r-load/NIBRSCodeTables.xlsx
+++ b/nibrs/r-load/NIBRSCodeTables.xlsx
@@ -1,49 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="705" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="705" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TOC" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="SegmentActionTypeType" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ClearedExceptionallyType" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="UCROffenseCodeType" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="OffenderSuspectedOfUsingType" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="LocationTypeType" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="MethodOfEntryType" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="TypeOfCriminalActivityType" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="TypeOfWeaponForceInvolvedType" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="BiasMotivationType" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="TypePropertyLossEtcType" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="PropertyDescriptionType" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="SuspectedDrugTypeType" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="TypeDrugMeasurementType" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="TypeOfVictimType" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="OfficerActivityCircumstanceType" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="OfficerAssignmentTypeType" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="SexOfPersonType" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="RaceOfPersonType" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="EthnicityOfPersonType" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="ResidentStatusOfPersonType" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="AggravatedAssaultHomicideCircum" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="AdditionalJustifiableHomicideCi" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="TypeInjuryType" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="RelationshipsVictimToOffendersT" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="TypeOfArrestType" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="MultipleArresteeSegmentsIndicat" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="ArresteeWasArmedWithType" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="DispositionOfArresteeUnder18Typ" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="TOC" sheetId="1" r:id="rId1"/>
+    <sheet name="SegmentActionTypeType" sheetId="2" r:id="rId2"/>
+    <sheet name="ClearedExceptionallyType" sheetId="3" r:id="rId3"/>
+    <sheet name="UCROffenseCodeType" sheetId="4" r:id="rId4"/>
+    <sheet name="OffenderSuspectedOfUsingType" sheetId="5" r:id="rId5"/>
+    <sheet name="LocationTypeType" sheetId="6" r:id="rId6"/>
+    <sheet name="MethodOfEntryType" sheetId="7" r:id="rId7"/>
+    <sheet name="TypeOfCriminalActivityType" sheetId="8" r:id="rId8"/>
+    <sheet name="TypeOfWeaponForceInvolvedType" sheetId="9" r:id="rId9"/>
+    <sheet name="BiasMotivationType" sheetId="10" r:id="rId10"/>
+    <sheet name="TypePropertyLossEtcType" sheetId="11" r:id="rId11"/>
+    <sheet name="PropertyDescriptionType" sheetId="12" r:id="rId12"/>
+    <sheet name="SuspectedDrugTypeType" sheetId="13" r:id="rId13"/>
+    <sheet name="TypeDrugMeasurementType" sheetId="14" r:id="rId14"/>
+    <sheet name="TypeOfVictimType" sheetId="15" r:id="rId15"/>
+    <sheet name="OfficerActivityCircumstanceType" sheetId="16" r:id="rId16"/>
+    <sheet name="OfficerAssignmentTypeType" sheetId="17" r:id="rId17"/>
+    <sheet name="SexOfPersonType" sheetId="18" r:id="rId18"/>
+    <sheet name="RaceOfPersonType" sheetId="19" r:id="rId19"/>
+    <sheet name="EthnicityOfPersonType" sheetId="20" r:id="rId20"/>
+    <sheet name="ResidentStatusOfPersonType" sheetId="21" r:id="rId21"/>
+    <sheet name="AggravatedAssaultHomicideCircum" sheetId="22" r:id="rId22"/>
+    <sheet name="AdditionalJustifiableHomicideCi" sheetId="23" r:id="rId23"/>
+    <sheet name="TypeInjuryType" sheetId="24" r:id="rId24"/>
+    <sheet name="RelationshipsVictimToOffendersT" sheetId="25" r:id="rId25"/>
+    <sheet name="TypeOfArrestType" sheetId="26" r:id="rId26"/>
+    <sheet name="MultipleArresteeSegmentsIndicat" sheetId="27" r:id="rId27"/>
+    <sheet name="ArresteeWasArmedWithType" sheetId="28" r:id="rId28"/>
+    <sheet name="DispositionOfArresteeUnder18Typ" sheetId="29" r:id="rId29"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="610">
   <si>
     <t>Table</t>
   </si>
@@ -1545,10 +1544,10 @@
     <t>AMERICAN INDIAN or ALASKA NATIVE:  A person having origins in any of the original peoples of the Americas and maintaining cultural identification through tribal affiliations or community recognition.</t>
   </si>
   <si>
-    <t>UNKNOWN </t>
-  </si>
-  <si>
-    <t>WHITE:  A person having origins in any of the original peoples of Europe, North Africa, or Middle East.  </t>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>WHITE:  A person having origins in any of the original peoples of Europe, North Africa, or Middle East.</t>
   </si>
   <si>
     <t>NATIVE HAWAIIAN or OTHER PACIFIC ISLANDER:  A person having origins in any of the original peoples of Hawaii, Guam, Samoa, or other Pacific Islands.  The term "Native Hawaiian" does not include individuals who are native to the State of Hawaii by virtue of being born there.  However, the following Pacific Islander groups are included:  Carolinian, Fijian, Kosraean, Melanesian, Micronesian, Northern Mariana Islander, Palauan, Papua New Guinean, Ponapean (Pohnpelan), Polynesian, Solomon Islander, Tahitian, Tarawa Islander, Tokelauan, Tongan, Trukese (Chuukese), and Yapese.</t>
@@ -1878,39 +1877,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1922,7 +1902,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1930,350 +1910,586 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Normal 2" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.8382978723404"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8340425531915"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6042553191489"/>
+    <col min="1" max="1" width="42.875"/>
+    <col min="2" max="2" width="29.875"/>
+    <col min="3" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D19" activeCellId="0" pane="topLeft" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.32765957446809"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.6595744680851"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="1" width="10.625"/>
+    <col min="2" max="2" width="5.375"/>
+    <col min="3" max="3" width="48.625"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -2284,345 +2500,337 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>22</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>23</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>24</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>26</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>301</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>27</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>302</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>32</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>33</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>41</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>305</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>42</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>306</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>43</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>307</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>44</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>45</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>309</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>51</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>310</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>52</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>311</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>61</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>312</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>62</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>313</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>71</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>72</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>315</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>88</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>316</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>99</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>317</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D8" activeCellId="0" pane="topLeft" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.66808510638298"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="9.33191489361702"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.1617021276596"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="1" width="5.625"/>
+    <col min="2" max="2" width="9.375" style="3"/>
+    <col min="3" max="3" width="71.125"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -2633,125 +2841,117 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>288</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A47" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D44" activeCellId="0" pane="topLeft" sqref="D44"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="10.8297872340426"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.3276595744681"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="1" width="10.625"/>
+    <col min="2" max="2" width="10.875" style="3"/>
+    <col min="3" max="3" width="40.375"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -2762,784 +2962,776 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>328</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>332</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>335</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>337</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>338</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>339</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>340</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>341</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>342</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>344</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>345</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>346</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>347</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>353</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>355</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>357</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>359</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>361</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>363</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>365</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>367</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>369</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>370</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>371</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>372</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>373</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>374</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>376</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>377</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>378</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>379</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>380</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>283</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>383</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>385</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>387</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>389</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>391</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>393</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>395</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>397</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>399</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59">
-      <c r="A59" s="0" t="n">
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>401</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="60">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>403</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="61">
-      <c r="A61" s="0" t="n">
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>405</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>407</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>409</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>411</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>413</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>415</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>417</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="68">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>419</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="69">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>421</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D13" activeCellId="0" pane="topLeft" sqref="D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5021276595745"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="18.5"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -3550,545 +3742,521 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>427</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>428</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>429</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>430</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>431</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>432</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>433</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>435</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>436</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>437</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>438</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>439</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>262</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>440</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>441</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>442</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>443</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>444</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>445</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1659574468085"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="17.125"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>446</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>448</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>450</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>452</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>454</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>456</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>457</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>458</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>459</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>460</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>461</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>462</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>464</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>465</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>467</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D6" activeCellId="0" pane="topLeft" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.331914893617"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="60.375"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>471</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>435</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>441</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>473</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>474</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>475</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>288</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.3276595744681"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="62.375"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -4099,3339 +4267,3187 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>479</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>480</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>481</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>482</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>483</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>484</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>485</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>486</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D8" activeCellId="0" pane="topLeft" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="74"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>429</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>491</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>492</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>435</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>493</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D4" activeCellId="0" pane="topLeft" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.336170212766"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="32.375"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>496</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C2" activeCellId="0" pane="topLeft" sqref="C2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="255.829787234043"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="255.875"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>497</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>266</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>502</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D6" activeCellId="0" pane="topLeft" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.83404255319149"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.331914893617"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="1" width="5"/>
+    <col min="2" max="2" width="5.875"/>
+    <col min="3" max="3" width="22.375"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D3" activeCellId="0" pane="topLeft" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.49787234042553"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.336170212766"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="1" width="10.625"/>
+    <col min="2" max="2" width="7.5"/>
+    <col min="3" max="3" width="19.375"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>429</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>443</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.331914893617"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="11.375"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>505</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>441</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>443</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D8" activeCellId="0" pane="topLeft" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.331914893617"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="43.375"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>507</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>509</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>510</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>512</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>513</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>514</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>515</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>516</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>30</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>517</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>31</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>518</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>32</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>519</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>33</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>520</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>34</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>521</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>20</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>522</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>21</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>523</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D3" activeCellId="0" pane="topLeft" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.5021276595745"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="63.5"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>526</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>527</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>528</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>530</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.331914893617"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="20.375"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>535</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>536</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>264</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>537</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>538</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D24" activeCellId="0" pane="topLeft" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5021276595745"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="41.5"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>543</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>544</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>545</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>547</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>548</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>549</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>550</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>551</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>552</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>553</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>554</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>555</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>556</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>557</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>558</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>559</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>560</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>561</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>562</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>563</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>564</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>565</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>566</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>567</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>568</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>569</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>570</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>571</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>572</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>573</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>574</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>575</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>576</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>577</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>578</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>579</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>580</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>581</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>582</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>583</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>584</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>585</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>586</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>587</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>588</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>589</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>590</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D4" activeCellId="0" pane="topLeft" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.331914893617"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="16.375"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>591</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>474</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>593</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5021276595745"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="13.5"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>595</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D8" activeCellId="0" pane="topLeft" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.1617021276596"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="58.125"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>596</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>598</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>17</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>599</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>600</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>601</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>602</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>603</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>604</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>605</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>606</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>607</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D3" activeCellId="0" pane="topLeft" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1659574468085"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="25.125"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>429</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>608</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>441</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>609</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C6" activeCellId="0" pane="topLeft" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="176.668085106383"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="176.625"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D19" activeCellId="0" pane="topLeft" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.16170212765957"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.49787234042553"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="1" width="6.125"/>
+    <col min="2" max="2" width="7.5"/>
+    <col min="3" max="3" width="56"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>100</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>120</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>200</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>210</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>220</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>240</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>250</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>270</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>290</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>370</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>121</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="2">
         <v>510</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>124</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>126</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>128</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>280</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>135</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2">
         <v>520</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>136</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>138</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>140</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>142</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>144</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>148</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>152</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>156</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D3" activeCellId="0" pane="topLeft" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8340425531915"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="18.875"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D16" activeCellId="0" pane="topLeft" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.82978723404255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="8.16595744680851"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.668085106383"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="1" width="6.875"/>
+    <col min="2" max="2" width="8.125" style="3"/>
+    <col min="3" max="3" width="36.625"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>186</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>190</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>204</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>206</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>210</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>212</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>214</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>224</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>228</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>230</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>236</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>238</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>240</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>242</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>244</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>246</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>248</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>252</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C3" activeCellId="0" pane="topLeft" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6042553191489"/>
+    <col min="1" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D10" activeCellId="0" pane="topLeft" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6042553191489"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.663829787234"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="2" width="10.625"/>
+    <col min="3" max="3" width="64.625"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -7442,158 +7458,150 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>264</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>271</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D14" activeCellId="0" pane="topLeft" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.66382978723404"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="10.8297872340426"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.331914893617"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6042553191489"/>
+    <col min="1" max="1" width="6.625"/>
+    <col min="2" max="2" width="10.875" style="3"/>
+    <col min="3" max="3" width="26.375"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -7604,200 +7612,195 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>14</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>30</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>35</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>40</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>50</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>282</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>60</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>65</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>70</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>285</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>85</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>286</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>90</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>287</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>95</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>288</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>99</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>289</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/nibrs/r-load/NIBRSCodeTables.xlsx
+++ b/nibrs/r-load/NIBRSCodeTables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="705" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="8190" tabRatio="705" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="692">
   <si>
     <t>Table</t>
   </si>
@@ -149,15 +149,6 @@
     <t>DispositionOfArresteeUnder18Typ</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -860,9 +851,6 @@
     <t>Other Gang (membership is predominantly 18 years of age or older)</t>
   </si>
   <si>
-    <t>None/Unknown</t>
-  </si>
-  <si>
     <t>Firearm</t>
   </si>
   <si>
@@ -1025,171 +1013,51 @@
     <t>Bicycles</t>
   </si>
   <si>
-    <t>buses</t>
-  </si>
-  <si>
-    <t>clothes/ furs</t>
-  </si>
-  <si>
-    <t>computer hard/ software</t>
-  </si>
-  <si>
-    <t>consumable goods</t>
-  </si>
-  <si>
-    <t>credit/ debit cards</t>
-  </si>
-  <si>
-    <t>drugs/ narcotics</t>
-  </si>
-  <si>
-    <t>drug equipment</t>
-  </si>
-  <si>
-    <t>farm equipment</t>
-  </si>
-  <si>
-    <t>firearms</t>
-  </si>
-  <si>
-    <t>gambling equipment</t>
-  </si>
-  <si>
-    <t>industrial equipment</t>
-  </si>
-  <si>
-    <t>household goods</t>
-  </si>
-  <si>
-    <t>jewelry/ precious metals</t>
-  </si>
-  <si>
-    <t>livestock</t>
-  </si>
-  <si>
-    <t>merchandise</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>negotiable instruments</t>
-  </si>
-  <si>
-    <t>non negotiable instruments</t>
-  </si>
-  <si>
-    <t>office equipment</t>
-  </si>
-  <si>
-    <t>other motor vehicles</t>
-  </si>
-  <si>
-    <t>purse/ wallet</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
-    <t>radio/ tv/ vcr</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
-    <t>recordings</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
-    <t>recreational vehicles</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
-    <t>structure/ single dwelling</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
-    <t>structure/ other residence</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
-    <t>structure/ other commercial</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
-    <t>structure/ other industrial</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
-    <t>structure/ public</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
-    <t>structure/ storage</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
-    <t>structure/ other</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
-    <t>tools</t>
-  </si>
-  <si>
-    <t>trucks</t>
-  </si>
-  <si>
-    <t>vehicle parts</t>
-  </si>
-  <si>
-    <t>watercraft</t>
-  </si>
-  <si>
-    <t>Aircraft Parts/ Accessories</t>
-  </si>
-  <si>
-    <t>Artistic Supplies/ Accessories</t>
-  </si>
-  <si>
     <t>43</t>
   </si>
   <si>
     <t>Building Materials</t>
   </si>
   <si>
-    <t>Camping/ Hunting/ Fishing Equipment/ Supplies</t>
-  </si>
-  <si>
     <t>Chemicals</t>
   </si>
   <si>
-    <t>Collections/ Collectibles</t>
-  </si>
-  <si>
     <t>Crops</t>
   </si>
   <si>
-    <t>Documents/ Personal or Business</t>
-  </si>
-  <si>
     <t>59</t>
   </si>
   <si>
@@ -1223,9 +1091,6 @@
     <t>68</t>
   </si>
   <si>
-    <t>Lawn/ Yard/ Garden Equipment</t>
-  </si>
-  <si>
     <t>69</t>
   </si>
   <si>
@@ -1235,9 +1100,6 @@
     <t>70</t>
   </si>
   <si>
-    <t>Medical/ Medical Lab Equipment</t>
-  </si>
-  <si>
     <t>71</t>
   </si>
   <si>
@@ -1259,9 +1121,6 @@
     <t>74</t>
   </si>
   <si>
-    <t>Photographic/ Optical Equipment</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -1271,15 +1130,9 @@
     <t>76</t>
   </si>
   <si>
-    <t>Recreational/ Sports Equipment</t>
-  </si>
-  <si>
     <t>77</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
@@ -1289,9 +1142,6 @@
     <t>79</t>
   </si>
   <si>
-    <t>Watercraft Equipment/ Parts/ Accessories</t>
-  </si>
-  <si>
     <t>80</t>
   </si>
   <si>
@@ -1301,42 +1151,12 @@
     <t>88</t>
   </si>
   <si>
-    <t>pending inventory</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>crack cocaine</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>hashish</t>
-  </si>
-  <si>
-    <t>heroin</t>
-  </si>
-  <si>
-    <t>marijuana</t>
-  </si>
-  <si>
-    <t>morphine</t>
-  </si>
-  <si>
-    <t>opium</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
-    <t>other narcotics</t>
-  </si>
-  <si>
     <t>LSD</t>
   </si>
   <si>
@@ -1346,42 +1166,18 @@
     <t>K</t>
   </si>
   <si>
-    <t>other hallucinogens</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>meth/amphetamines</t>
-  </si>
-  <si>
-    <t>other stimulants</t>
-  </si>
-  <si>
-    <t>barbiturates</t>
-  </si>
-  <si>
-    <t>other depressants</t>
-  </si>
-  <si>
-    <t>other drugs</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>alcohol</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>more than 3 types</t>
-  </si>
-  <si>
     <t>DU</t>
   </si>
   <si>
@@ -1445,9 +1241,6 @@
     <t>XX</t>
   </si>
   <si>
-    <t>Not Reported</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
@@ -1872,6 +1665,459 @@
   </si>
   <si>
     <t>Referred to Other Authorities</t>
+  </si>
+  <si>
+    <t>SegmentActionTypeTypeID</t>
+  </si>
+  <si>
+    <t>SegmentActionTypeCode</t>
+  </si>
+  <si>
+    <t>SegmentActionTypeDescription</t>
+  </si>
+  <si>
+    <t>ClearedExceptionallyTypeID</t>
+  </si>
+  <si>
+    <t>ClearedExceptionallyCode</t>
+  </si>
+  <si>
+    <t>ClearedExceptionallyDescription</t>
+  </si>
+  <si>
+    <t>UCROffenseCodeTypeID</t>
+  </si>
+  <si>
+    <t>UCROffenseCodeDescription</t>
+  </si>
+  <si>
+    <t>UCROffenseCode</t>
+  </si>
+  <si>
+    <t>OffenderSuspectedOfUsingTypeID</t>
+  </si>
+  <si>
+    <t>OffenderSuspectedOfUsingCode</t>
+  </si>
+  <si>
+    <t>OffenderSuspectedOfUsingDescription</t>
+  </si>
+  <si>
+    <t>LocationTypeTypeID</t>
+  </si>
+  <si>
+    <t>LocationTypeCode</t>
+  </si>
+  <si>
+    <t>LocationTypeDescription</t>
+  </si>
+  <si>
+    <t>MethodOfEntryTypeID</t>
+  </si>
+  <si>
+    <t>MethodOfEntryCode</t>
+  </si>
+  <si>
+    <t>MethodOfEntryDescription</t>
+  </si>
+  <si>
+    <t>TypeOfCriminalActivityTypeID</t>
+  </si>
+  <si>
+    <t>TypeOfCriminalActivityCode</t>
+  </si>
+  <si>
+    <t>TypeOfCriminalActivityDescription</t>
+  </si>
+  <si>
+    <t>TypeOfWeaponForceInvolvedTypeID</t>
+  </si>
+  <si>
+    <t>TypeOfWeaponForceInvolvedCode</t>
+  </si>
+  <si>
+    <t>TypeOfWeaponForceInvolvedDescription</t>
+  </si>
+  <si>
+    <t>BiasMotivationTypeID</t>
+  </si>
+  <si>
+    <t>BiasMotivationCode</t>
+  </si>
+  <si>
+    <t>BiasMotivationDescription</t>
+  </si>
+  <si>
+    <t>TypePropertyLossEtcTypeID</t>
+  </si>
+  <si>
+    <t>TypePropertyLossEtcCode</t>
+  </si>
+  <si>
+    <t>TypePropertyLossEtcDescription</t>
+  </si>
+  <si>
+    <t>PropertyDescriptionTypeID</t>
+  </si>
+  <si>
+    <t>PropertyDescriptionCode</t>
+  </si>
+  <si>
+    <t>PropertyDescriptionDescription</t>
+  </si>
+  <si>
+    <t>SuspectedDrugTypeTypeID</t>
+  </si>
+  <si>
+    <t>SuspectedDrugTypeCode</t>
+  </si>
+  <si>
+    <t>SuspectedDrugTypeDescription</t>
+  </si>
+  <si>
+    <t>TypeDrugMeasurementTypeID</t>
+  </si>
+  <si>
+    <t>TypeDrugMeasurementCode</t>
+  </si>
+  <si>
+    <t>TypeDrugMeasurementDescription</t>
+  </si>
+  <si>
+    <t>TypeOfVictimTypeID</t>
+  </si>
+  <si>
+    <t>TypeOfVictimCode</t>
+  </si>
+  <si>
+    <t>TypeOfVictimDescription</t>
+  </si>
+  <si>
+    <t>OfficerActivityCircumstanceTypeID</t>
+  </si>
+  <si>
+    <t>OfficerActivityCircumstanceCode</t>
+  </si>
+  <si>
+    <t>OfficerActivityCircumstanceDescription</t>
+  </si>
+  <si>
+    <t>OfficerAssignmentTypeTypeID</t>
+  </si>
+  <si>
+    <t>OfficerAssignmentTypeCode</t>
+  </si>
+  <si>
+    <t>OfficerAssignmentTypeDescription</t>
+  </si>
+  <si>
+    <t>SexOfPersonTypeID</t>
+  </si>
+  <si>
+    <t>SexOfPersonCode</t>
+  </si>
+  <si>
+    <t>SexOfPersonDescription</t>
+  </si>
+  <si>
+    <t>RaceOfPersonTypeID</t>
+  </si>
+  <si>
+    <t>RaceOfPersonCode</t>
+  </si>
+  <si>
+    <t>RaceOfPersonDescription</t>
+  </si>
+  <si>
+    <t>EthnicityOfPersonTypeID</t>
+  </si>
+  <si>
+    <t>EthnicityOfPersonCode</t>
+  </si>
+  <si>
+    <t>EthnicityOfPersonDescription</t>
+  </si>
+  <si>
+    <t>ResidentStatusOfPersonTypeID</t>
+  </si>
+  <si>
+    <t>ResidentStatusOfPersonCode</t>
+  </si>
+  <si>
+    <t>ResidentStatusOfPersonDescription</t>
+  </si>
+  <si>
+    <t>AggravatedAssaultHomicideCircumstancesTypeID</t>
+  </si>
+  <si>
+    <t>AggravatedAssaultHomicideCircumstancesCode</t>
+  </si>
+  <si>
+    <t>AggravatedAssaultHomicideCircumstancesDescription</t>
+  </si>
+  <si>
+    <t>AdditionalJustifiableHomicideCircumstancesCode</t>
+  </si>
+  <si>
+    <t>AdditionalJustifiableHomicideCircumstancesDescription</t>
+  </si>
+  <si>
+    <t>TypeInjuryTypeID</t>
+  </si>
+  <si>
+    <t>TypeInjuryCode</t>
+  </si>
+  <si>
+    <t>TypeInjuryDescription</t>
+  </si>
+  <si>
+    <t>RelationshipsVictimToOffendersTypeID</t>
+  </si>
+  <si>
+    <t>RelationshipsVictimToOffendersCode</t>
+  </si>
+  <si>
+    <t>RelationshipsVictimToOffendersDescription</t>
+  </si>
+  <si>
+    <t>TypeOfArrestTypeID</t>
+  </si>
+  <si>
+    <t>TypeOfArrestCode</t>
+  </si>
+  <si>
+    <t>TypeOfArrestDescription</t>
+  </si>
+  <si>
+    <t>MultipleArresteeSegmentsIndicatorTypeID</t>
+  </si>
+  <si>
+    <t>MultipleArresteeSegmentsIndicatorCode</t>
+  </si>
+  <si>
+    <t>MultipleArresteeSegmentsIndicatorDescription</t>
+  </si>
+  <si>
+    <t>ArresteeWasArmedWithTypeID</t>
+  </si>
+  <si>
+    <t>ArresteeWasArmedWithCode</t>
+  </si>
+  <si>
+    <t>ArresteeWasArmedWithDescription</t>
+  </si>
+  <si>
+    <t>DispositionOfArresteeUnder18TypeID</t>
+  </si>
+  <si>
+    <t>DispositionOfArresteeUnder18Code</t>
+  </si>
+  <si>
+    <t>DispositionOfArresteeUnder18Description</t>
+  </si>
+  <si>
+    <t>AdditionalJustifiableHomicideCircumstancesID</t>
+  </si>
+  <si>
+    <t>None/Unknown Gang Involvement</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Unknown/NA</t>
+  </si>
+  <si>
+    <t>Buses</t>
+  </si>
+  <si>
+    <t>Clothes / Furs</t>
+  </si>
+  <si>
+    <t>Computer Hardware / Software</t>
+  </si>
+  <si>
+    <t>Consumable Goods</t>
+  </si>
+  <si>
+    <t>Credit/Debit Cards</t>
+  </si>
+  <si>
+    <t>Drug Equipment</t>
+  </si>
+  <si>
+    <t>Farm Equipment</t>
+  </si>
+  <si>
+    <t>Firearms</t>
+  </si>
+  <si>
+    <t>Gambling Equipment</t>
+  </si>
+  <si>
+    <t>Industrial Equipment</t>
+  </si>
+  <si>
+    <t>Household Goods</t>
+  </si>
+  <si>
+    <t>Jewelry/Precious Metals</t>
+  </si>
+  <si>
+    <t>Livestock</t>
+  </si>
+  <si>
+    <t>Merchandise</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Negotiable Instruments</t>
+  </si>
+  <si>
+    <t>Non-Negotiable Instruments</t>
+  </si>
+  <si>
+    <t>Office Equipment</t>
+  </si>
+  <si>
+    <t>Other Motor Vehicles</t>
+  </si>
+  <si>
+    <t>Purse/Wallet</t>
+  </si>
+  <si>
+    <t>Recreational Vehicles</t>
+  </si>
+  <si>
+    <t>Structure / Single Dwelling</t>
+  </si>
+  <si>
+    <t>Structure / Other Residence</t>
+  </si>
+  <si>
+    <t>Structure / Other Commercial</t>
+  </si>
+  <si>
+    <t>Structure / Other Industrial</t>
+  </si>
+  <si>
+    <t>Structure / Public</t>
+  </si>
+  <si>
+    <t>Structure / Storage</t>
+  </si>
+  <si>
+    <t>Structure / Other</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>Vehicle Parts</t>
+  </si>
+  <si>
+    <t>Watercraft</t>
+  </si>
+  <si>
+    <t>Aircraft Parts / Accessories</t>
+  </si>
+  <si>
+    <t>Artistic Supplies / Accessories</t>
+  </si>
+  <si>
+    <t>Camping/Hunting/Fishing Equipment/Supplies</t>
+  </si>
+  <si>
+    <t>Collections/Collectibles</t>
+  </si>
+  <si>
+    <t>Documents / Personal or Business</t>
+  </si>
+  <si>
+    <t>Lawn/Yard/Garden Equipment</t>
+  </si>
+  <si>
+    <t>Medical / Medical Lab Equipment</t>
+  </si>
+  <si>
+    <t>Photographic/Optical Equipment</t>
+  </si>
+  <si>
+    <t>Recreational/Sports Equipment</t>
+  </si>
+  <si>
+    <t>Watercraft Equipment/Parts/Accessories</t>
+  </si>
+  <si>
+    <t>Pending Inventory</t>
+  </si>
+  <si>
+    <t>Recordings-Audio/Visual</t>
+  </si>
+  <si>
+    <t>Radio/TV/VCR/DVD</t>
+  </si>
+  <si>
+    <t>None / Special Category</t>
+  </si>
+  <si>
+    <t>Not a drug</t>
+  </si>
+  <si>
+    <t>Crack Cocaine</t>
+  </si>
+  <si>
+    <t>Cocaine</t>
+  </si>
+  <si>
+    <t>Hashish</t>
+  </si>
+  <si>
+    <t>Heroin</t>
+  </si>
+  <si>
+    <t>Marijuana</t>
+  </si>
+  <si>
+    <t>Morphine</t>
+  </si>
+  <si>
+    <t>Opium</t>
+  </si>
+  <si>
+    <t>Other Hallucinogens</t>
+  </si>
+  <si>
+    <t>Other Narcotics</t>
+  </si>
+  <si>
+    <t>Meth/Amphetamines</t>
+  </si>
+  <si>
+    <t>Other Stimulants</t>
+  </si>
+  <si>
+    <t>Barbiturates</t>
+  </si>
+  <si>
+    <t>Other Depressants</t>
+  </si>
+  <si>
+    <t>Other Drugs</t>
+  </si>
+  <si>
+    <t>More than 3 types</t>
+  </si>
+  <si>
+    <t>Unknown/Not Reported</t>
   </si>
 </sst>
 </file>
@@ -2478,334 +2724,334 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625"/>
-    <col min="2" max="2" width="5.375"/>
-    <col min="3" max="3" width="48.625"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>565</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>566</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>11</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="1">
+        <v>12</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="1">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="1">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="1">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="1">
+        <v>21</v>
       </c>
       <c r="B8">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="1">
+        <v>22</v>
       </c>
       <c r="B9">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="1">
+        <v>23</v>
       </c>
       <c r="B10">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="1">
+        <v>24</v>
       </c>
       <c r="B11">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="1">
+        <v>25</v>
       </c>
       <c r="B12">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="1">
+        <v>26</v>
       </c>
       <c r="B13">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" s="1">
+        <v>27</v>
       </c>
       <c r="B14">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" s="1">
+        <v>32</v>
       </c>
       <c r="B15">
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" s="1">
+        <v>33</v>
       </c>
       <c r="B16">
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" s="1">
+        <v>41</v>
       </c>
       <c r="B17">
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" s="1">
+        <v>42</v>
       </c>
       <c r="B18">
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" s="1">
+        <v>43</v>
       </c>
       <c r="B19">
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" s="1">
+        <v>44</v>
       </c>
       <c r="B20">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" s="1">
+        <v>45</v>
       </c>
       <c r="B21">
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" s="1">
+        <v>51</v>
       </c>
       <c r="B22">
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" s="1">
+        <v>52</v>
       </c>
       <c r="B23">
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" s="1">
+        <v>61</v>
       </c>
       <c r="B24">
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" s="1">
+        <v>62</v>
       </c>
       <c r="B25">
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" s="1">
+        <v>71</v>
       </c>
       <c r="B26">
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" s="1">
+        <v>72</v>
       </c>
       <c r="B27">
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" s="1">
+        <v>88</v>
       </c>
       <c r="B28">
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" s="1">
+        <v>99</v>
       </c>
       <c r="B29">
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2819,26 +3065,26 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.625"/>
-    <col min="2" max="2" width="9.375" style="3"/>
-    <col min="3" max="3" width="71.125"/>
+    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.75" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>568</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>569</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2849,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2860,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2871,7 +3117,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2882,7 +3128,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2893,7 +3139,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2904,7 +3150,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2915,18 +3161,18 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2939,8 +3185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2953,13 +3199,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>571</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>572</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2967,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2978,10 +3224,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2989,10 +3235,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,10 +3246,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3011,10 +3257,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>327</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3022,10 +3268,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3033,10 +3279,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3044,10 +3290,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>330</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3055,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>331</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3066,10 +3312,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>332</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3077,10 +3323,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>333</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3088,10 +3334,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,10 +3345,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3110,10 +3356,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3121,10 +3367,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3132,10 +3378,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3143,10 +3389,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>339</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3154,10 +3400,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>340</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3165,10 +3411,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>341</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3176,10 +3422,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>342</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3187,10 +3433,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>343</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3198,10 +3444,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>344</v>
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,10 +3455,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
-        <v>345</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3220,10 +3466,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
-        <v>346</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,10 +3477,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>347</v>
+        <v>648</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3242,10 +3488,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C27" t="s">
-        <v>349</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3253,10 +3499,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="C28" t="s">
-        <v>351</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3264,10 +3510,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="C29" t="s">
-        <v>353</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3275,10 +3521,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="C30" t="s">
-        <v>355</v>
+        <v>650</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3286,10 +3532,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
-        <v>357</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3297,10 +3543,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="C32" t="s">
-        <v>359</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3308,10 +3554,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="C33" t="s">
-        <v>361</v>
+        <v>653</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3319,10 +3565,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
-        <v>363</v>
+        <v>654</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3330,10 +3576,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="C35" t="s">
-        <v>365</v>
+        <v>655</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3341,10 +3587,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="C36" t="s">
-        <v>367</v>
+        <v>656</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3352,10 +3598,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C37" t="s">
-        <v>369</v>
+        <v>657</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3363,10 +3609,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>370</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,10 +3620,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>371</v>
+        <v>659</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3385,329 +3631,329 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>372</v>
+        <v>660</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C41" t="s">
-        <v>373</v>
+        <v>661</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
-        <v>374</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="C43" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
-        <v>377</v>
+        <v>663</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C45" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s">
-        <v>379</v>
+        <v>664</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C48" t="s">
-        <v>381</v>
+        <v>665</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="C50" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="C52" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="C53" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="C54" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="C55" t="s">
-        <v>393</v>
+        <v>666</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="C56" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="C57" t="s">
-        <v>397</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="C58" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="C59" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="C60" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="C61" t="s">
-        <v>405</v>
+        <v>668</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="C62" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="C63" t="s">
-        <v>409</v>
+        <v>669</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="C64" t="s">
-        <v>411</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="C65" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="C66" t="s">
-        <v>415</v>
+        <v>670</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="C67" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="C68" t="s">
-        <v>419</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="C69" t="s">
-        <v>421</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -3718,28 +3964,29 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="18.5"/>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>574</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>575</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3747,10 +3994,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>422</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3758,10 +4005,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>423</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3769,10 +4016,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>424</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,10 +4027,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>425</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3791,10 +4038,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>426</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3802,10 +4049,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>427</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3813,10 +4060,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
-        <v>428</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3824,10 +4071,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="C9" t="s">
-        <v>430</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3835,10 +4082,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3846,10 +4093,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3857,10 +4104,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
-        <v>434</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,10 +4115,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="C13" t="s">
-        <v>436</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3879,10 +4126,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>437</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3890,10 +4137,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>438</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3901,10 +4148,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>439</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3912,10 +4159,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" t="s">
-        <v>440</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3923,10 +4170,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C18" t="s">
-        <v>442</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3934,10 +4181,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>443</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3945,10 +4192,21 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>444</v>
+        <v>377</v>
       </c>
       <c r="C20" t="s">
-        <v>445</v>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>626</v>
+      </c>
+      <c r="C21" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -3961,81 +4219,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="17.125"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>577</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>578</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
-        <v>451</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="C5" t="s">
-        <v>453</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4043,65 +4302,65 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="C7" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
-        <v>459</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="C9" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
       <c r="C10" t="s">
-        <v>463</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>396</v>
       </c>
       <c r="C11" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>466</v>
+        <v>398</v>
       </c>
       <c r="C12" t="s">
-        <v>467</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -4115,7 +4374,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4127,13 +4386,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>580</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>581</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4141,10 +4400,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>468</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4152,10 +4411,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4163,10 +4422,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4174,10 +4433,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4185,10 +4444,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4196,10 +4455,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4207,10 +4466,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C8" t="s">
-        <v>473</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4218,10 +4477,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="C9" t="s">
-        <v>475</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4229,10 +4488,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -4246,25 +4505,26 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="62.375"/>
+    <col min="1" max="1" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.625" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>583</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>584</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4272,10 +4532,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4283,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>477</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4294,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>478</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4305,10 +4565,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>479</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4316,10 +4576,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4327,10 +4587,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>481</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4338,10 +4598,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4349,10 +4609,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4360,10 +4620,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4374,7 +4634,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>485</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4385,7 +4645,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -4399,7 +4659,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4411,13 +4671,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>586</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>587</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4425,10 +4685,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4436,10 +4696,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4447,10 +4707,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
-        <v>489</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4458,10 +4718,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4469,10 +4729,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C6" t="s">
-        <v>491</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4480,10 +4740,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
-        <v>492</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4491,10 +4751,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>493</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4508,25 +4768,26 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="32.375"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>589</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>590</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4534,10 +4795,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>494</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4545,10 +4806,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4556,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>496</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -4572,26 +4833,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="255.875"/>
+    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>592</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>593</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4599,10 +4861,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4610,10 +4872,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>498</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4621,10 +4883,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>499</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4632,10 +4894,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>500</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4643,10 +4905,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>501</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4654,10 +4916,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>502</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -4670,27 +4932,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5"/>
-    <col min="2" max="2" width="5.875"/>
-    <col min="3" max="3" width="22.375"/>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>541</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>542</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4698,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4709,10 +4971,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4720,10 +4982,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4731,10 +4993,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4742,10 +5004,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4753,7 +5015,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4767,7 +5029,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4780,13 +5042,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>595</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>596</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4794,10 +5056,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>503</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,10 +5067,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>504</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4816,10 +5078,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -4833,25 +5095,26 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="11.375"/>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>598</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>599</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4859,10 +5122,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4870,10 +5133,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
-        <v>506</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4881,10 +5144,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -4898,25 +5161,26 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="43.375"/>
+    <col min="1" max="1" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>601</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>602</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4924,10 +5188,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4935,10 +5199,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>508</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4946,10 +5210,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>509</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4957,10 +5221,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>510</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4968,10 +5232,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>511</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4979,10 +5243,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>512</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4990,10 +5254,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>513</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5001,10 +5265,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>514</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5012,10 +5276,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>515</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5026,7 +5290,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>516</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5037,7 +5301,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>517</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5048,7 +5312,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>518</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5059,7 +5323,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>519</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5070,7 +5334,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>520</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5081,7 +5345,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>521</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5092,7 +5356,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>522</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5103,7 +5367,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>523</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5117,7 +5381,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5129,13 +5393,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>624</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>604</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5143,10 +5407,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>524</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5154,10 +5418,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>525</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5165,10 +5429,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>526</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5176,10 +5440,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>527</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5187,10 +5451,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>528</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5198,10 +5462,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>529</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5209,10 +5473,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
-        <v>530</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -5226,7 +5490,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5238,13 +5502,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>606</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>607</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5252,10 +5516,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>531</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5263,10 +5527,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>532</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5274,10 +5538,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>533</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5285,10 +5549,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5296,10 +5560,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>535</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5307,10 +5571,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5318,10 +5582,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5329,10 +5593,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -5346,7 +5610,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5358,13 +5622,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>609</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>610</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5372,10 +5636,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5383,10 +5647,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5394,10 +5658,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>543</v>
+        <v>474</v>
       </c>
       <c r="C4" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5405,10 +5669,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="C5" t="s">
-        <v>546</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5416,10 +5680,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>547</v>
+        <v>478</v>
       </c>
       <c r="C6" t="s">
-        <v>548</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5427,10 +5691,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>549</v>
+        <v>480</v>
       </c>
       <c r="C7" t="s">
-        <v>550</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5438,10 +5702,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>551</v>
+        <v>482</v>
       </c>
       <c r="C8" t="s">
-        <v>552</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5449,10 +5713,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>553</v>
+        <v>484</v>
       </c>
       <c r="C9" t="s">
-        <v>554</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5460,10 +5724,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>555</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
-        <v>556</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5471,10 +5735,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>557</v>
+        <v>488</v>
       </c>
       <c r="C11" t="s">
-        <v>558</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5482,10 +5746,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
       <c r="C12" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5493,10 +5757,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>561</v>
+        <v>492</v>
       </c>
       <c r="C13" t="s">
-        <v>562</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5504,10 +5768,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="C14" t="s">
-        <v>564</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5515,10 +5779,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>565</v>
+        <v>496</v>
       </c>
       <c r="C15" t="s">
-        <v>566</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5526,10 +5790,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>567</v>
+        <v>498</v>
       </c>
       <c r="C16" t="s">
-        <v>568</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5537,10 +5801,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>569</v>
+        <v>500</v>
       </c>
       <c r="C17" t="s">
-        <v>570</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5548,10 +5812,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>571</v>
+        <v>502</v>
       </c>
       <c r="C18" t="s">
-        <v>572</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5559,10 +5823,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>573</v>
+        <v>504</v>
       </c>
       <c r="C19" t="s">
-        <v>574</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5570,10 +5834,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>575</v>
+        <v>506</v>
       </c>
       <c r="C20" t="s">
-        <v>576</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5581,10 +5845,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>577</v>
+        <v>508</v>
       </c>
       <c r="C21" t="s">
-        <v>578</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5592,10 +5856,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>579</v>
+        <v>510</v>
       </c>
       <c r="C22" t="s">
-        <v>580</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5603,10 +5867,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="C23" t="s">
-        <v>582</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5614,10 +5878,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>583</v>
+        <v>514</v>
       </c>
       <c r="C24" t="s">
-        <v>584</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5625,10 +5889,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>585</v>
+        <v>516</v>
       </c>
       <c r="C25" t="s">
-        <v>586</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5636,10 +5900,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>587</v>
+        <v>518</v>
       </c>
       <c r="C26" t="s">
-        <v>588</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5647,10 +5911,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>589</v>
+        <v>520</v>
       </c>
       <c r="C27" t="s">
-        <v>590</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -5664,25 +5928,26 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="16.375"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>612</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>613</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5690,10 +5955,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>591</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5701,10 +5966,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s">
-        <v>592</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5712,10 +5977,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>593</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -5729,7 +5994,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5741,13 +6006,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>615</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>616</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5755,10 +6020,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5766,10 +6031,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5777,10 +6042,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5794,7 +6059,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5806,13 +6071,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>618</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>619</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5820,10 +6085,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>596</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5834,7 +6099,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>597</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,7 +6110,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5856,7 +6121,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5867,7 +6132,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5878,7 +6143,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5889,7 +6154,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>598</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5900,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>599</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5908,10 +6173,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>600</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5919,10 +6184,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
       <c r="C11" t="s">
-        <v>602</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5930,10 +6195,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>603</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5941,10 +6206,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>604</v>
+        <v>535</v>
       </c>
       <c r="C13" t="s">
-        <v>605</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5952,10 +6217,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>606</v>
+        <v>537</v>
       </c>
       <c r="C14" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -5969,7 +6234,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5981,13 +6246,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>621</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>622</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,10 +6260,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="C2" t="s">
-        <v>608</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6006,10 +6271,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
-        <v>609</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -6023,25 +6288,26 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="176.625"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="181" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>544</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>545</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6049,10 +6315,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6060,10 +6326,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6071,10 +6337,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6082,10 +6348,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6093,10 +6359,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6104,10 +6370,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6121,26 +6387,26 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.125"/>
-    <col min="2" max="2" width="7.5"/>
-    <col min="3" max="3" width="56"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.125" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>547</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>549</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6148,10 +6414,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6159,10 +6425,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6170,10 +6436,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6184,7 +6450,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6195,7 +6461,7 @@
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6203,10 +6469,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6214,10 +6480,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6225,10 +6491,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6239,7 +6505,7 @@
         <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6250,7 +6516,7 @@
         <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6261,7 +6527,7 @@
         <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6269,10 +6535,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6280,10 +6546,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6291,10 +6557,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6302,10 +6568,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6313,10 +6579,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6324,10 +6590,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6335,10 +6601,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6346,10 +6612,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6360,7 +6626,7 @@
         <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6371,7 +6637,7 @@
         <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6379,10 +6645,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6390,10 +6656,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6401,10 +6667,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6412,10 +6678,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6423,10 +6689,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6437,7 +6703,7 @@
         <v>270</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6448,7 +6714,7 @@
         <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6456,10 +6722,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6467,10 +6733,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6481,7 +6747,7 @@
         <v>370</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6489,10 +6755,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6500,10 +6766,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6511,10 +6777,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6522,10 +6788,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6533,10 +6799,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6544,10 +6810,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6558,7 +6824,7 @@
         <v>510</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6566,10 +6832,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6577,10 +6843,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6588,10 +6854,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6599,10 +6865,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6613,7 +6879,7 @@
         <v>280</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6621,10 +6887,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6632,10 +6898,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6646,7 +6912,7 @@
         <v>520</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6654,10 +6920,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6665,10 +6931,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6676,10 +6942,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6687,10 +6953,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6698,10 +6964,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6709,10 +6975,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6720,10 +6986,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6731,10 +6997,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6742,10 +7008,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6753,10 +7019,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6764,10 +7030,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6781,25 +7047,26 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="18.875"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>550</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>551</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6807,10 +7074,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6818,10 +7085,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6829,10 +7096,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6840,10 +7107,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6854,29 +7121,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.875"/>
-    <col min="2" max="2" width="8.125" style="3"/>
-    <col min="3" max="3" width="36.625"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.75" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>553</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>554</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6884,10 +7151,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6895,10 +7162,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6906,10 +7173,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6917,10 +7184,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6928,10 +7195,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6939,10 +7206,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6950,10 +7217,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6961,10 +7228,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6972,10 +7239,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6983,10 +7250,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6994,10 +7261,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7005,10 +7272,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7016,10 +7283,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7027,10 +7294,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7038,10 +7305,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7049,10 +7316,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7060,10 +7327,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7071,10 +7338,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7082,10 +7349,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7093,10 +7360,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7104,10 +7371,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7115,10 +7382,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7126,10 +7393,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7137,10 +7404,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7148,230 +7415,241 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C42" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>99</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C47" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -7382,48 +7660,62 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.625"/>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>556</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>557</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C4" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -7434,28 +7726,29 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="64.625"/>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.75" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>559</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>560</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7463,10 +7756,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7474,10 +7767,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7485,10 +7778,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7496,87 +7789,98 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>626</v>
+      </c>
+      <c r="C13" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -7590,26 +7894,26 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.625"/>
-    <col min="2" max="2" width="10.875" style="3"/>
-    <col min="3" max="3" width="26.375"/>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>35</v>
+        <v>562</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>563</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7620,7 +7924,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7631,7 +7935,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7642,7 +7946,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7653,7 +7957,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7664,7 +7968,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7675,7 +7979,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7686,7 +7990,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7697,7 +8001,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7708,7 +8012,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7719,7 +8023,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7730,7 +8034,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7741,7 +8045,7 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7752,7 +8056,7 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7763,7 +8067,7 @@
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7774,7 +8078,7 @@
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7785,7 +8089,7 @@
         <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7796,7 +8100,7 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/nibrs/r-load/NIBRSCodeTables.xlsx
+++ b/nibrs/r-load/NIBRSCodeTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="8190" tabRatio="705" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="8190" tabRatio="705" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="AggravatedAssaultHomicideCircum" sheetId="22" r:id="rId22"/>
     <sheet name="AdditionalJustifiableHomicideCi" sheetId="23" r:id="rId23"/>
     <sheet name="TypeInjuryType" sheetId="24" r:id="rId24"/>
-    <sheet name="RelationshipsVictimToOffendersT" sheetId="25" r:id="rId25"/>
+    <sheet name="VictimOffenderRelationshipType" sheetId="25" r:id="rId25"/>
     <sheet name="TypeOfArrestType" sheetId="26" r:id="rId26"/>
     <sheet name="MultipleArresteeSegmentsIndicat" sheetId="27" r:id="rId27"/>
     <sheet name="ArresteeWasArmedWithType" sheetId="28" r:id="rId28"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="688">
   <si>
     <t>Table</t>
   </si>
@@ -125,12 +125,6 @@
     <t>TypeInjuryType</t>
   </si>
   <si>
-    <t>RelationshipsVictimToOffendersType</t>
-  </si>
-  <si>
-    <t>RelationshipsVictimToOffendersT</t>
-  </si>
-  <si>
     <t>TypeOfArrestType</t>
   </si>
   <si>
@@ -1325,33 +1319,9 @@
     <t>MALE</t>
   </si>
   <si>
-    <t>UNKNOWN - FOR UNIDENTIFIED ONLY</t>
-  </si>
-  <si>
-    <t>ASIAN:  A person having origins in any of the original peoples of the Far East, Southeast Asia, or the Indian subcontinent including, for example, Cambodia, China, India, Japan, Korea, Malaysia, Pakistan, the Philippine Islands, Thailand, and Vietnam.</t>
-  </si>
-  <si>
-    <t>BLACK or AFRICAN AMERICAN:  A person having origins in any of the black racial groups of Africa.</t>
-  </si>
-  <si>
-    <t>AMERICAN INDIAN or ALASKA NATIVE:  A person having origins in any of the original peoples of the Americas and maintaining cultural identification through tribal affiliations or community recognition.</t>
-  </si>
-  <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
-    <t>WHITE:  A person having origins in any of the original peoples of Europe, North Africa, or Middle East.</t>
-  </si>
-  <si>
-    <t>NATIVE HAWAIIAN or OTHER PACIFIC ISLANDER:  A person having origins in any of the original peoples of Hawaii, Guam, Samoa, or other Pacific Islands.  The term "Native Hawaiian" does not include individuals who are native to the State of Hawaii by virtue of being born there.  However, the following Pacific Islander groups are included:  Carolinian, Fijian, Kosraean, Melanesian, Micronesian, Northern Mariana Islander, Palauan, Papua New Guinean, Ponapean (Pohnpelan), Polynesian, Solomon Islander, Tahitian, Tarawa Islander, Tokelauan, Tongan, Trukese (Chuukese), and Yapese.</t>
-  </si>
-  <si>
     <t>Hispanic or Latino</t>
   </si>
   <si>
-    <t>non Hispanic or Latino</t>
-  </si>
-  <si>
     <t>Nonresident</t>
   </si>
   <si>
@@ -1430,30 +1400,6 @@
     <t>Unable to Determine/Not Enough Information</t>
   </si>
   <si>
-    <t>apparent broken bones</t>
-  </si>
-  <si>
-    <t>possible internal injury</t>
-  </si>
-  <si>
-    <t>severe laceration</t>
-  </si>
-  <si>
-    <t>minor injury</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>other major injury</t>
-  </si>
-  <si>
-    <t>loss of teeth</t>
-  </si>
-  <si>
-    <t>unconscious</t>
-  </si>
-  <si>
     <t>AQ</t>
   </si>
   <si>
@@ -1871,15 +1817,6 @@
     <t>TypeInjuryDescription</t>
   </si>
   <si>
-    <t>RelationshipsVictimToOffendersTypeID</t>
-  </si>
-  <si>
-    <t>RelationshipsVictimToOffendersCode</t>
-  </si>
-  <si>
-    <t>RelationshipsVictimToOffendersDescription</t>
-  </si>
-  <si>
     <t>TypeOfArrestTypeID</t>
   </si>
   <si>
@@ -2118,6 +2055,57 @@
   </si>
   <si>
     <t>Unknown/Not Reported</t>
+  </si>
+  <si>
+    <t>Non Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Black / African American</t>
+  </si>
+  <si>
+    <t>American Indian or Alaska Native</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Native Hawaiian / Other Pacific Islander</t>
+  </si>
+  <si>
+    <t>VictimOffenderRelationshipType</t>
+  </si>
+  <si>
+    <t>VictimOffenderRelationshipTypeID</t>
+  </si>
+  <si>
+    <t>VictimOffenderRelationshipTypeCode</t>
+  </si>
+  <si>
+    <t>VictimOffenderRelationshipTypeDescription</t>
+  </si>
+  <si>
+    <t>Apparent Broken Bones</t>
+  </si>
+  <si>
+    <t>Possible Internal Injury</t>
+  </si>
+  <si>
+    <t>Severe Laceration</t>
+  </si>
+  <si>
+    <t>Minor Injury</t>
+  </si>
+  <si>
+    <t>Other Major Injury</t>
+  </si>
+  <si>
+    <t>Loss of Teeth</t>
+  </si>
+  <si>
+    <t>Unconscious</t>
   </si>
 </sst>
 </file>
@@ -2471,7 +2459,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2675,42 +2663,42 @@
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>677</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2737,13 +2725,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2754,7 +2742,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2765,7 +2753,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2776,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2787,7 +2775,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2798,7 +2786,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2809,7 +2797,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2820,7 +2808,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2831,7 +2819,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2842,7 +2830,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2853,7 +2841,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2864,7 +2852,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2875,7 +2863,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2886,7 +2874,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2897,7 +2885,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2908,7 +2896,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2919,7 +2907,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2930,7 +2918,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2941,7 +2929,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2952,7 +2940,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2963,7 +2951,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2974,7 +2962,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2985,7 +2973,7 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2996,7 +2984,7 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3007,7 +2995,7 @@
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3018,7 +3006,7 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3029,7 +3017,7 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3040,7 +3028,7 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3051,7 +3039,7 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3078,13 +3066,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3095,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3106,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3117,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3128,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3139,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3150,7 +3138,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3161,7 +3149,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3172,7 +3160,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3199,13 +3187,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3213,10 +3201,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,10 +3212,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3235,10 +3223,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3246,10 +3234,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3257,10 +3245,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3268,10 +3256,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3279,10 +3267,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3290,10 +3278,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,10 +3289,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3312,10 +3300,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3323,10 +3311,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3334,10 +3322,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3345,10 +3333,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3356,10 +3344,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3367,10 +3355,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3378,10 +3366,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3389,10 +3377,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3400,10 +3388,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3411,10 +3399,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3422,10 +3410,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3433,10 +3421,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3444,10 +3432,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3455,10 +3443,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3466,10 +3454,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3477,10 +3465,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3488,10 +3476,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C27" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3499,10 +3487,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C28" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3510,10 +3498,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C29" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3521,10 +3509,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C30" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3532,10 +3520,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C31" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,10 +3531,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C32" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3554,10 +3542,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C33" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3565,10 +3553,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C34" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3576,10 +3564,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C35" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3587,10 +3575,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C36" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3598,10 +3586,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C37" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3609,10 +3597,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3620,10 +3608,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3631,10 +3619,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3642,10 +3630,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C41" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3653,10 +3641,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3664,10 +3652,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3675,10 +3663,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C44" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3686,10 +3674,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3697,10 +3685,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C46" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3708,10 +3696,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3719,10 +3707,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C48" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3730,10 +3718,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3741,10 +3729,10 @@
         <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C50" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,10 +3740,10 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C51" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,10 +3751,10 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C52" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3774,10 +3762,10 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C53" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3785,10 +3773,10 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C54" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3796,10 +3784,10 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C55" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3807,10 +3795,10 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3818,10 +3806,10 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C57" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3829,10 +3817,10 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3840,10 +3828,10 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C59" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3851,10 +3839,10 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C60" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3862,10 +3850,10 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C61" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3873,10 +3861,10 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C62" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,10 +3872,10 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C63" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3895,10 +3883,10 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C64" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3906,10 +3894,10 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C65" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3917,10 +3905,10 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C66" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3928,10 +3916,10 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C67" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3939,10 +3927,10 @@
         <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C68" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3950,10 +3938,10 @@
         <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C69" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -3980,13 +3968,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4005,10 +3993,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4016,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4027,10 +4015,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4038,10 +4026,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4049,10 +4037,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4060,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4071,10 +4059,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4082,10 +4070,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4093,10 +4081,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4104,10 +4092,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4115,10 +4103,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C13" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4126,10 +4114,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4137,10 +4125,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4148,10 +4136,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C16" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4159,10 +4147,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4170,10 +4158,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4181,10 +4169,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4192,10 +4180,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C20" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4203,10 +4191,10 @@
         <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="C21" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -4219,7 +4207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4233,13 +4221,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="C1" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4247,10 +4235,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4258,10 +4246,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4269,10 +4257,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4280,10 +4268,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4291,10 +4279,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4302,10 +4290,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4313,10 +4301,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4324,10 +4312,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4335,10 +4323,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4346,10 +4334,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4357,10 +4345,10 @@
         <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C12" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -4374,7 +4362,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4386,57 +4374,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="B1" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="C1" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4444,43 +4432,43 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4488,10 +4476,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4502,10 +4490,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4518,13 +4506,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4532,10 +4520,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4543,10 +4531,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4554,10 +4542,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4565,10 +4553,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4576,10 +4564,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4587,10 +4575,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4598,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4609,10 +4597,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4620,10 +4608,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4634,7 +4622,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4645,7 +4633,18 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>606</v>
+      </c>
+      <c r="C13" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4656,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4671,13 +4670,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="B1" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="C1" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4685,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4696,10 +4695,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4707,10 +4706,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4718,10 +4717,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4729,10 +4728,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4740,10 +4739,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4751,10 +4750,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>424</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C9" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4768,7 +4778,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4781,13 +4791,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="B1" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="C1" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4795,10 +4805,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4806,21 +4816,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>605</v>
       </c>
       <c r="C4" t="s">
-        <v>427</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4834,7 +4844,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4847,13 +4857,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="B1" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="C1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4861,10 +4871,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>428</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4872,10 +4882,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>429</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4883,21 +4893,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>430</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>431</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4905,10 +4915,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>432</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4916,10 +4926,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -4946,13 +4956,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="B1" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="C1" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4960,10 +4970,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4971,10 +4981,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4982,10 +4992,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4993,10 +5003,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5004,10 +5014,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5015,7 +5025,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5029,7 +5039,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5042,13 +5052,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="B1" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="C1" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5056,10 +5066,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5067,21 +5077,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>435</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -5095,7 +5105,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5108,13 +5118,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="B1" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="C1" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5122,10 +5132,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5133,21 +5143,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -5158,10 +5168,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5174,13 +5184,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="C1" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5188,10 +5198,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5199,10 +5209,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5210,10 +5220,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5221,10 +5231,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,10 +5242,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5243,10 +5253,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5254,10 +5264,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5265,10 +5275,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5276,10 +5286,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5290,84 +5300,95 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2">
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>454</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>606</v>
+      </c>
+      <c r="C19" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5378,10 +5399,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5393,13 +5414,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="B1" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="C1" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5407,10 +5428,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5418,10 +5439,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5429,10 +5450,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5440,10 +5461,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5451,10 +5472,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5462,10 +5483,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5473,10 +5494,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C9" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5490,7 +5522,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5502,90 +5534,90 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="B1" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="C1" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>462</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>463</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>464</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>466</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>467</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>468</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5593,10 +5625,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>469</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -5610,25 +5642,26 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="41.5"/>
+    <col min="1" max="1" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" bestFit="1" customWidth="1"/>
     <col min="4" max="1025" width="10.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="B1" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="C1" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5636,10 +5669,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="C2" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5647,10 +5680,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="C3" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5658,10 +5691,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C4" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5669,10 +5702,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="C5" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5680,10 +5713,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="C6" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5691,10 +5724,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5702,10 +5735,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5713,10 +5746,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="C9" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5724,10 +5757,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="C10" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5735,10 +5768,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C11" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5746,10 +5779,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C12" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5757,10 +5790,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C13" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5768,10 +5801,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="C14" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5779,10 +5812,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="C15" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5790,10 +5823,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="C16" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5801,10 +5834,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C17" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5812,10 +5845,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="C18" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5823,10 +5856,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="C19" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5834,10 +5867,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C20" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,10 +5878,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="C21" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5856,10 +5889,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="C22" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5867,10 +5900,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="C23" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5878,10 +5911,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C24" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5889,10 +5922,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="C25" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5900,10 +5933,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="C26" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5911,10 +5944,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C27" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -5941,13 +5974,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="B1" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="C1" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5955,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5966,10 +5999,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C3" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5977,10 +6010,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -6006,13 +6039,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="B1" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="C1" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6020,10 +6053,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6031,10 +6064,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6042,10 +6075,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6071,13 +6104,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="B1" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="C1" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6085,10 +6118,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6099,7 +6132,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6110,7 +6143,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6121,7 +6154,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6132,7 +6165,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6143,7 +6176,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6154,7 +6187,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6165,7 +6198,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6173,10 +6206,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6184,10 +6217,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="C11" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6195,10 +6228,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6206,10 +6239,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="C13" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6217,10 +6250,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="C14" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -6246,13 +6279,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="B1" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="C1" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6260,10 +6293,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6271,10 +6304,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -6301,13 +6334,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="B1" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="C1" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6315,10 +6348,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6326,10 +6359,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6337,10 +6370,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6348,10 +6381,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6359,10 +6392,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6370,10 +6403,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -6387,7 +6420,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6400,640 +6433,640 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="C1" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2">
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2">
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="B10" s="2">
         <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2">
         <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>220</v>
       </c>
       <c r="B12" s="2">
         <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="B21" s="2">
         <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="B22" s="2">
         <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>261</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>263</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="B28" s="2">
         <v>270</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="B29" s="2">
         <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>352</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>370</v>
       </c>
       <c r="B32" s="2">
         <v>370</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>391</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>392</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>393</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>394</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>401</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>402</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>510</v>
       </c>
       <c r="B39" s="2">
         <v>510</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2">
         <v>280</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>361</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>520</v>
       </c>
       <c r="B47" s="2">
         <v>520</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>901</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>902</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>903</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>904</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>905</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>906</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>907</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>908</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>909</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>910</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>990</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7060,13 +7093,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="B1" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="C1" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7074,10 +7107,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7085,10 +7118,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7096,10 +7129,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7107,10 +7140,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -7137,13 +7170,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="C1" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7151,10 +7184,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7162,10 +7195,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7173,10 +7206,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7184,10 +7217,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7195,10 +7228,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7206,10 +7239,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7217,10 +7250,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7228,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7239,10 +7272,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7250,10 +7283,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7261,10 +7294,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7272,10 +7305,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7283,10 +7316,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7294,10 +7327,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7305,10 +7338,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7316,10 +7349,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7327,10 +7360,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7338,10 +7371,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7349,10 +7382,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7360,10 +7393,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7371,10 +7404,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7382,10 +7415,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7393,10 +7426,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7404,10 +7437,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7415,10 +7448,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7426,10 +7459,10 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7437,10 +7470,10 @@
         <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7448,10 +7481,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7459,10 +7492,10 @@
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7470,10 +7503,10 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7481,10 +7514,10 @@
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7492,10 +7525,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7503,10 +7536,10 @@
         <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7514,10 +7547,10 @@
         <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7525,10 +7558,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7536,10 +7569,10 @@
         <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7547,10 +7580,10 @@
         <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7558,10 +7591,10 @@
         <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7569,10 +7602,10 @@
         <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7580,10 +7613,10 @@
         <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7591,10 +7624,10 @@
         <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7602,10 +7635,10 @@
         <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7613,10 +7646,10 @@
         <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7624,10 +7657,10 @@
         <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7635,10 +7668,10 @@
         <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C46" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7646,10 +7679,10 @@
         <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="C47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -7676,13 +7709,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="C1" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7690,10 +7723,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7701,10 +7734,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7712,10 +7745,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="C4" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -7742,13 +7775,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7756,10 +7789,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7767,10 +7800,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7778,10 +7811,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7789,10 +7822,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7800,10 +7833,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7811,10 +7844,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7822,10 +7855,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7833,10 +7866,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7844,10 +7877,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7855,10 +7888,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7866,10 +7899,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7877,10 +7910,10 @@
         <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7907,13 +7940,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7924,7 +7957,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7935,7 +7968,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7946,7 +7979,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7957,7 +7990,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7968,7 +8001,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7979,7 +8012,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7990,7 +8023,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8001,7 +8034,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8012,7 +8045,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8023,7 +8056,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8034,7 +8067,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8045,7 +8078,7 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8056,7 +8089,7 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8067,7 +8100,7 @@
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8078,7 +8111,7 @@
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8089,7 +8122,7 @@
         <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8100,7 +8133,7 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/nibrs/r-load/NIBRSCodeTables.xlsx
+++ b/nibrs/r-load/NIBRSCodeTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="8190" tabRatio="705" firstSheet="19" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="8190" tabRatio="705" firstSheet="16" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -179,24 +179,12 @@
     <t>B</t>
   </si>
   <si>
-    <t>Prosecution Declined (by the prosecutor for other than lack of probable cause)</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>In Custody of Other Jurisdiction (includes extradition denied)</t>
-  </si>
-  <si>
-    <t>Victim Refused to Cooperate (in the prosecution)</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>Juvenile/No Custody (the handling of a juvenile without taking him/her into custody, but rather by oral or written notice given to the parents or legal guardian in a case involving a minor offense, such as petty larceny)</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -2106,6 +2094,18 @@
   </si>
   <si>
     <t>Unconscious</t>
+  </si>
+  <si>
+    <t>Prosecution Declined</t>
+  </si>
+  <si>
+    <t>In Custody of Other Jurisdiction</t>
+  </si>
+  <si>
+    <t>Victim Refused to Cooperate</t>
+  </si>
+  <si>
+    <t>Juvenile/No Custody</t>
   </si>
 </sst>
 </file>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B25" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2725,13 +2725,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2753,7 +2753,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,7 +2775,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2797,7 +2797,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2808,7 +2808,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2819,7 +2819,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2841,7 +2841,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2852,7 +2852,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2885,7 +2885,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2896,7 +2896,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2907,7 +2907,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2973,7 +2973,7 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,7 +3006,7 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3066,13 +3066,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3094,7 +3094,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3138,7 +3138,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3187,13 +3187,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3201,10 +3201,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,10 +3212,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3223,10 +3223,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3234,10 +3234,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3245,10 +3245,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3256,10 +3256,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3267,10 +3267,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3278,10 +3278,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3289,10 +3289,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3300,10 +3300,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3311,10 +3311,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3322,10 +3322,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3333,10 +3333,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3344,10 +3344,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3355,10 +3355,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3366,10 +3366,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3377,10 +3377,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3388,10 +3388,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3399,10 +3399,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3410,10 +3410,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3421,10 +3421,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3432,10 +3432,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3443,10 +3443,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3454,10 +3454,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3465,10 +3465,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3476,10 +3476,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C27" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3487,10 +3487,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3498,10 +3498,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C29" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3509,10 +3509,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3520,10 +3520,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,10 +3531,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C32" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3542,10 +3542,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C33" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3553,10 +3553,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C34" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3564,10 +3564,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3575,10 +3575,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C36" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3586,10 +3586,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C37" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3597,10 +3597,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C38" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3608,10 +3608,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3619,10 +3619,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3630,10 +3630,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3641,10 +3641,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3652,10 +3652,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3663,10 +3663,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C44" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3674,10 +3674,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C45" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3685,10 +3685,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C46" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3696,10 +3696,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C47" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3707,10 +3707,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C48" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3718,10 +3718,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C49" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3729,10 +3729,10 @@
         <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C50" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3740,10 +3740,10 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C51" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3751,10 +3751,10 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C52" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3762,10 +3762,10 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C53" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3773,10 +3773,10 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C54" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3784,10 +3784,10 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C55" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3795,10 +3795,10 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C56" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3806,10 +3806,10 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C57" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3817,10 +3817,10 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C58" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3828,10 +3828,10 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C59" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3839,10 +3839,10 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C60" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3850,10 +3850,10 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C61" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3861,10 +3861,10 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C62" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3872,10 +3872,10 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C63" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3883,10 +3883,10 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3894,10 +3894,10 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C65" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3905,10 +3905,10 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C66" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3916,10 +3916,10 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C67" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3927,10 +3927,10 @@
         <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C68" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3938,10 +3938,10 @@
         <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C69" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -3968,13 +3968,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3985,7 +3985,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4004,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4026,10 +4026,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4037,10 +4037,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4048,10 +4048,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4059,10 +4059,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4073,7 +4073,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4081,10 +4081,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4092,10 +4092,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4103,10 +4103,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C13" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4117,7 +4117,7 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4125,10 +4125,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4136,10 +4136,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4147,10 +4147,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4158,10 +4158,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4169,10 +4169,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4180,10 +4180,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C20" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4191,10 +4191,10 @@
         <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C21" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -4221,13 +4221,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4235,10 +4235,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4246,10 +4246,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4257,10 +4257,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4268,10 +4268,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4279,10 +4279,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4290,10 +4290,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4301,10 +4301,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4312,10 +4312,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4323,10 +4323,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4334,10 +4334,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,10 +4345,10 @@
         <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C12" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -4374,13 +4374,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4391,7 +4391,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4399,10 +4399,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4410,10 +4410,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4424,7 +4424,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,10 +4432,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4443,10 +4443,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4454,10 +4454,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4465,10 +4465,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4476,10 +4476,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4506,13 +4506,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4520,10 +4520,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4531,10 +4531,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4542,10 +4542,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4553,10 +4553,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4564,10 +4564,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4575,10 +4575,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4586,10 +4586,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4597,10 +4597,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4608,10 +4608,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4622,7 +4622,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4633,7 +4633,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4641,10 +4641,10 @@
         <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4670,13 +4670,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4684,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4695,10 +4695,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4706,10 +4706,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4720,7 +4720,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4728,10 +4728,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4739,10 +4739,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4750,10 +4750,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,10 +4761,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4791,13 +4791,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,10 +4805,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4819,7 +4819,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4827,10 +4827,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4844,7 +4844,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4857,24 +4857,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4896,7 +4896,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4904,32 +4904,32 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -4956,13 +4956,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5025,7 +5025,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5039,7 +5039,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5052,13 +5052,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5066,10 +5066,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5077,10 +5077,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5088,10 +5088,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5104,8 +5104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5118,35 +5118,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5154,10 +5154,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5170,7 +5170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -5184,13 +5184,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5198,10 +5198,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5209,10 +5209,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5220,10 +5220,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5231,10 +5231,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5242,10 +5242,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5253,10 +5253,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5264,10 +5264,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5275,10 +5275,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5286,10 +5286,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5311,7 +5311,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5322,7 +5322,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5333,7 +5333,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5344,7 +5344,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5355,7 +5355,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5366,7 +5366,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5377,7 +5377,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5385,10 +5385,10 @@
         <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5414,13 +5414,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5431,7 +5431,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5442,7 +5442,7 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5450,10 +5450,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5464,7 +5464,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5472,10 +5472,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5483,10 +5483,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5494,10 +5494,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5505,10 +5505,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5534,13 +5534,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5551,7 +5551,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5562,7 +5562,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5570,10 +5570,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5584,7 +5584,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5592,10 +5592,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5603,10 +5603,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5614,10 +5614,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5625,10 +5625,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -5655,13 +5655,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5669,10 +5669,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5680,10 +5680,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5691,10 +5691,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5702,10 +5702,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5713,10 +5713,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5724,10 +5724,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5735,10 +5735,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5746,10 +5746,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C9" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5757,10 +5757,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5768,10 +5768,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5779,10 +5779,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5790,10 +5790,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C13" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5801,10 +5801,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5812,10 +5812,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5823,10 +5823,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C16" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5834,10 +5834,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C17" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,10 +5845,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C18" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5856,10 +5856,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C19" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5867,10 +5867,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C20" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5878,10 +5878,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C21" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5889,10 +5889,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5900,10 +5900,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C23" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5911,10 +5911,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C24" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5922,10 +5922,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C25" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5933,10 +5933,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C26" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5944,10 +5944,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C27" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -5974,13 +5974,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5988,10 +5988,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5999,10 +5999,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6010,10 +6010,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -6039,13 +6039,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6053,10 +6053,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6067,7 +6067,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6075,10 +6075,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6104,13 +6104,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6118,10 +6118,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6132,7 +6132,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6143,7 +6143,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6154,7 +6154,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6165,7 +6165,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6176,7 +6176,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6187,7 +6187,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6198,7 +6198,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6206,10 +6206,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6217,10 +6217,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6228,10 +6228,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6239,10 +6239,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6250,10 +6250,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C14" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -6279,13 +6279,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6293,10 +6293,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6304,10 +6304,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -6321,7 +6321,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6334,13 +6334,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6362,7 +6362,7 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6370,10 +6370,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6392,10 +6392,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6403,10 +6403,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6433,13 +6433,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6447,10 +6447,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6458,10 +6458,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6469,10 +6469,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6483,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6494,7 +6494,7 @@
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6502,10 +6502,10 @@
         <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6513,10 +6513,10 @@
         <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6524,10 +6524,10 @@
         <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6538,7 +6538,7 @@
         <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6549,7 +6549,7 @@
         <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6560,7 +6560,7 @@
         <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6568,10 +6568,10 @@
         <v>231</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6579,10 +6579,10 @@
         <v>232</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6590,10 +6590,10 @@
         <v>233</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6601,10 +6601,10 @@
         <v>234</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6612,10 +6612,10 @@
         <v>235</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6623,10 +6623,10 @@
         <v>236</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6634,10 +6634,10 @@
         <v>237</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6645,10 +6645,10 @@
         <v>238</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6659,7 +6659,7 @@
         <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6670,7 +6670,7 @@
         <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6678,10 +6678,10 @@
         <v>261</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6689,10 +6689,10 @@
         <v>262</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6700,10 +6700,10 @@
         <v>263</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6711,10 +6711,10 @@
         <v>264</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6722,10 +6722,10 @@
         <v>265</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>270</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6747,7 +6747,7 @@
         <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6755,10 +6755,10 @@
         <v>351</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6766,10 +6766,10 @@
         <v>352</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6780,7 +6780,7 @@
         <v>370</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6788,10 +6788,10 @@
         <v>391</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6799,10 +6799,10 @@
         <v>392</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6810,10 +6810,10 @@
         <v>393</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6821,10 +6821,10 @@
         <v>394</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6832,10 +6832,10 @@
         <v>401</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6843,10 +6843,10 @@
         <v>402</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6857,7 +6857,7 @@
         <v>510</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6865,10 +6865,10 @@
         <v>111</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6876,10 +6876,10 @@
         <v>112</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6887,10 +6887,10 @@
         <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6898,10 +6898,10 @@
         <v>114</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6912,7 +6912,7 @@
         <v>280</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6920,10 +6920,10 @@
         <v>361</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6931,10 +6931,10 @@
         <v>362</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6945,7 +6945,7 @@
         <v>520</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6953,10 +6953,10 @@
         <v>901</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6964,10 +6964,10 @@
         <v>902</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6975,10 +6975,10 @@
         <v>903</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6986,10 +6986,10 @@
         <v>904</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6997,10 +6997,10 @@
         <v>905</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7008,10 +7008,10 @@
         <v>906</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7019,10 +7019,10 @@
         <v>907</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7030,10 +7030,10 @@
         <v>908</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7041,10 +7041,10 @@
         <v>909</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7052,10 +7052,10 @@
         <v>910</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7063,10 +7063,10 @@
         <v>990</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -7093,13 +7093,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7110,7 +7110,7 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7118,10 +7118,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7132,7 +7132,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7140,10 +7140,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7170,13 +7170,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7184,10 +7184,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7195,10 +7195,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7206,10 +7206,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7217,10 +7217,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7228,10 +7228,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7239,10 +7239,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7250,10 +7250,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7272,10 +7272,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7283,10 +7283,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7294,10 +7294,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7305,10 +7305,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7316,10 +7316,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7327,10 +7327,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7338,10 +7338,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7349,10 +7349,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7360,10 +7360,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7371,10 +7371,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7382,10 +7382,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7393,10 +7393,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7404,10 +7404,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7415,10 +7415,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7426,10 +7426,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7437,10 +7437,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7448,10 +7448,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7459,10 +7459,10 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7470,10 +7470,10 @@
         <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7481,10 +7481,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7492,10 +7492,10 @@
         <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7503,10 +7503,10 @@
         <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7514,10 +7514,10 @@
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7525,10 +7525,10 @@
         <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7536,10 +7536,10 @@
         <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7547,10 +7547,10 @@
         <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7558,10 +7558,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7569,10 +7569,10 @@
         <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7580,10 +7580,10 @@
         <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7591,10 +7591,10 @@
         <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7602,10 +7602,10 @@
         <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7613,10 +7613,10 @@
         <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7624,10 +7624,10 @@
         <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7635,10 +7635,10 @@
         <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7646,10 +7646,10 @@
         <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7657,10 +7657,10 @@
         <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C45" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7668,10 +7668,10 @@
         <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7679,10 +7679,10 @@
         <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C47" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7709,13 +7709,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7723,10 +7723,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7734,10 +7734,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7745,10 +7745,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -7775,13 +7775,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7800,10 +7800,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7814,7 +7814,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7822,10 +7822,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7833,10 +7833,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7844,10 +7844,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7855,10 +7855,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7866,10 +7866,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7877,10 +7877,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7888,10 +7888,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7899,10 +7899,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7910,10 +7910,10 @@
         <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -7940,13 +7940,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7957,7 +7957,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7968,7 +7968,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7979,7 +7979,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7990,7 +7990,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8001,7 +8001,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8012,7 +8012,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8023,7 +8023,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8034,7 +8034,7 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8045,7 +8045,7 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8056,7 +8056,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8067,7 +8067,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8078,7 +8078,7 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8089,7 +8089,7 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8100,7 +8100,7 @@
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8111,7 +8111,7 @@
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8122,7 +8122,7 @@
         <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,7 +8133,7 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/nibrs/r-load/NIBRSCodeTables.xlsx
+++ b/nibrs/r-load/NIBRSCodeTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="8190" tabRatio="705" firstSheet="16" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="8190" tabRatio="705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="691">
   <si>
     <t>Table</t>
   </si>
@@ -2106,6 +2106,15 @@
   </si>
   <si>
     <t>Juvenile/No Custody</t>
+  </si>
+  <si>
+    <t>OffenseCategory1</t>
+  </si>
+  <si>
+    <t>Simple Assault</t>
+  </si>
+  <si>
+    <t>Serious Violence</t>
   </si>
 </sst>
 </file>
@@ -5104,7 +5113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -6417,10 +6426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6428,10 +6437,11 @@
     <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>525</v>
       </c>
@@ -6441,8 +6451,11 @@
       <c r="C1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>91</v>
       </c>
@@ -6452,8 +6465,11 @@
       <c r="C2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>92</v>
       </c>
@@ -6463,8 +6479,11 @@
       <c r="C3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>93</v>
       </c>
@@ -6474,8 +6493,11 @@
       <c r="C4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -6485,8 +6507,11 @@
       <c r="C5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>120</v>
       </c>
@@ -6496,8 +6521,11 @@
       <c r="C6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>131</v>
       </c>
@@ -6507,8 +6535,11 @@
       <c r="C7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>132</v>
       </c>
@@ -6518,8 +6549,11 @@
       <c r="C8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>133</v>
       </c>
@@ -6529,8 +6563,11 @@
       <c r="C9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>200</v>
       </c>
@@ -6540,8 +6577,11 @@
       <c r="C10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>210</v>
       </c>
@@ -6551,8 +6591,11 @@
       <c r="C11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>220</v>
       </c>
@@ -6562,8 +6605,11 @@
       <c r="C12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>231</v>
       </c>
@@ -6573,8 +6619,11 @@
       <c r="C13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>232</v>
       </c>
@@ -6584,8 +6633,11 @@
       <c r="C14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>233</v>
       </c>
@@ -6595,8 +6647,11 @@
       <c r="C15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>234</v>
       </c>
@@ -6606,8 +6661,11 @@
       <c r="C16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>235</v>
       </c>
@@ -6617,8 +6675,11 @@
       <c r="C17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>236</v>
       </c>
@@ -6628,8 +6689,11 @@
       <c r="C18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>237</v>
       </c>
@@ -6639,8 +6703,11 @@
       <c r="C19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>238</v>
       </c>
@@ -6650,8 +6717,11 @@
       <c r="C20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>240</v>
       </c>
@@ -6661,8 +6731,11 @@
       <c r="C21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>250</v>
       </c>
@@ -6672,8 +6745,11 @@
       <c r="C22" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>261</v>
       </c>
@@ -6683,8 +6759,11 @@
       <c r="C23" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>262</v>
       </c>
@@ -6694,8 +6773,11 @@
       <c r="C24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>263</v>
       </c>
@@ -6705,8 +6787,11 @@
       <c r="C25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>264</v>
       </c>
@@ -6716,8 +6801,11 @@
       <c r="C26" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>265</v>
       </c>
@@ -6727,8 +6815,11 @@
       <c r="C27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>270</v>
       </c>
@@ -6738,8 +6829,11 @@
       <c r="C28" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>290</v>
       </c>
@@ -6749,8 +6843,11 @@
       <c r="C29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>351</v>
       </c>
@@ -6760,8 +6857,11 @@
       <c r="C30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>352</v>
       </c>
@@ -6771,8 +6871,11 @@
       <c r="C31" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>370</v>
       </c>
@@ -6782,8 +6885,11 @@
       <c r="C32" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>391</v>
       </c>
@@ -6793,8 +6899,11 @@
       <c r="C33" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>392</v>
       </c>
@@ -6804,8 +6913,11 @@
       <c r="C34" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>393</v>
       </c>
@@ -6815,8 +6927,11 @@
       <c r="C35" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>394</v>
       </c>
@@ -6826,8 +6941,11 @@
       <c r="C36" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>401</v>
       </c>
@@ -6837,8 +6955,11 @@
       <c r="C37" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>402</v>
       </c>
@@ -6848,8 +6969,11 @@
       <c r="C38" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>510</v>
       </c>
@@ -6859,8 +6983,11 @@
       <c r="C39" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>111</v>
       </c>
@@ -6870,8 +6997,11 @@
       <c r="C40" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>112</v>
       </c>
@@ -6881,8 +7011,11 @@
       <c r="C41" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>113</v>
       </c>
@@ -6892,8 +7025,11 @@
       <c r="C42" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>114</v>
       </c>
@@ -6903,8 +7039,11 @@
       <c r="C43" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>280</v>
       </c>
@@ -6914,8 +7053,11 @@
       <c r="C44" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>361</v>
       </c>
@@ -6925,8 +7067,11 @@
       <c r="C45" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>362</v>
       </c>
@@ -6936,8 +7081,11 @@
       <c r="C46" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>520</v>
       </c>
@@ -6947,8 +7095,11 @@
       <c r="C47" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>901</v>
       </c>
@@ -6958,8 +7109,11 @@
       <c r="C48" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>902</v>
       </c>
@@ -6969,8 +7123,11 @@
       <c r="C49" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>903</v>
       </c>
@@ -6980,8 +7137,11 @@
       <c r="C50" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>904</v>
       </c>
@@ -6991,8 +7151,11 @@
       <c r="C51" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>905</v>
       </c>
@@ -7002,8 +7165,11 @@
       <c r="C52" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>906</v>
       </c>
@@ -7013,8 +7179,11 @@
       <c r="C53" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>907</v>
       </c>
@@ -7024,8 +7193,11 @@
       <c r="C54" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>908</v>
       </c>
@@ -7035,8 +7207,11 @@
       <c r="C55" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>909</v>
       </c>
@@ -7046,8 +7221,11 @@
       <c r="C56" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>910</v>
       </c>
@@ -7057,8 +7235,11 @@
       <c r="C57" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>990</v>
       </c>
@@ -7067,6 +7248,9 @@
       </c>
       <c r="C58" t="s">
         <v>149</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/nibrs/r-load/NIBRSCodeTables.xlsx
+++ b/nibrs/r-load/NIBRSCodeTables.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/Documents/SEARCH/NCS-X/CodeListComparison/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="8190" tabRatio="705" activeTab="3"/>
+    <workbookView xWindow="30520" yWindow="460" windowWidth="24720" windowHeight="14360" tabRatio="705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" r:id="rId1"/>
@@ -31,18 +36,26 @@
     <sheet name="AggravatedAssaultHomicideCircum" sheetId="22" r:id="rId22"/>
     <sheet name="AdditionalJustifiableHomicideCi" sheetId="23" r:id="rId23"/>
     <sheet name="TypeInjuryType" sheetId="24" r:id="rId24"/>
-    <sheet name="VictimOffenderRelationshipType" sheetId="25" r:id="rId25"/>
+    <sheet name="RelationshipsVictimToOffendersT" sheetId="25" r:id="rId25"/>
     <sheet name="TypeOfArrestType" sheetId="26" r:id="rId26"/>
     <sheet name="MultipleArresteeSegmentsIndicat" sheetId="27" r:id="rId27"/>
     <sheet name="ArresteeWasArmedWithType" sheetId="28" r:id="rId28"/>
     <sheet name="DispositionOfArresteeUnder18Typ" sheetId="29" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="619">
   <si>
     <t>Table</t>
   </si>
@@ -125,6 +138,12 @@
     <t>TypeInjuryType</t>
   </si>
   <si>
+    <t>RelationshipsVictimToOffendersType</t>
+  </si>
+  <si>
+    <t>RelationshipsVictimToOffendersT</t>
+  </si>
+  <si>
     <t>TypeOfArrestType</t>
   </si>
   <si>
@@ -143,6 +162,15 @@
     <t>DispositionOfArresteeUnder18Typ</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
@@ -179,12 +207,24 @@
     <t>B</t>
   </si>
   <si>
+    <t>Prosecution Declined (by the prosecutor for other than lack of probable cause)</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>In Custody of Other Jurisdiction (includes extradition denied)</t>
+  </si>
+  <si>
+    <t>Victim Refused to Cooperate (in the prosecution)</t>
+  </si>
+  <si>
     <t>E</t>
   </si>
   <si>
+    <t>Juvenile/No Custody (the handling of a juvenile without taking him/her into custody, but rather by oral or written notice given to the parents or legal guardian in a case involving a minor offense, such as petty larceny)</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -833,6 +873,9 @@
     <t>Other Gang (membership is predominantly 18 years of age or older)</t>
   </si>
   <si>
+    <t>None/Unknown</t>
+  </si>
+  <si>
     <t>Firearm</t>
   </si>
   <si>
@@ -995,51 +1038,171 @@
     <t>Bicycles</t>
   </si>
   <si>
+    <t>buses</t>
+  </si>
+  <si>
+    <t>clothes/ furs</t>
+  </si>
+  <si>
+    <t>computer hard/ software</t>
+  </si>
+  <si>
+    <t>consumable goods</t>
+  </si>
+  <si>
+    <t>credit/ debit cards</t>
+  </si>
+  <si>
+    <t>drugs/ narcotics</t>
+  </si>
+  <si>
+    <t>drug equipment</t>
+  </si>
+  <si>
+    <t>farm equipment</t>
+  </si>
+  <si>
+    <t>firearms</t>
+  </si>
+  <si>
+    <t>gambling equipment</t>
+  </si>
+  <si>
+    <t>industrial equipment</t>
+  </si>
+  <si>
+    <t>household goods</t>
+  </si>
+  <si>
+    <t>jewelry/ precious metals</t>
+  </si>
+  <si>
+    <t>livestock</t>
+  </si>
+  <si>
+    <t>merchandise</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>negotiable instruments</t>
+  </si>
+  <si>
+    <t>non negotiable instruments</t>
+  </si>
+  <si>
+    <t>office equipment</t>
+  </si>
+  <si>
+    <t>other motor vehicles</t>
+  </si>
+  <si>
+    <t>purse/ wallet</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
+    <t>radio/ tv/ vcr</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
+    <t>recordings</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
+    <t>recreational vehicles</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
+    <t>structure/ single dwelling</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
+    <t>structure/ other residence</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
+    <t>structure/ other commercial</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
+    <t>structure/ other industrial</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
+    <t>structure/ public</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
+    <t>structure/ storage</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
+    <t>structure/ other</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>trucks</t>
+  </si>
+  <si>
+    <t>vehicle parts</t>
+  </si>
+  <si>
+    <t>watercraft</t>
+  </si>
+  <si>
+    <t>Aircraft Parts/ Accessories</t>
+  </si>
+  <si>
+    <t>Artistic Supplies/ Accessories</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
     <t>Building Materials</t>
   </si>
   <si>
+    <t>Camping/ Hunting/ Fishing Equipment/ Supplies</t>
+  </si>
+  <si>
     <t>Chemicals</t>
   </si>
   <si>
+    <t>Collections/ Collectibles</t>
+  </si>
+  <si>
     <t>Crops</t>
   </si>
   <si>
+    <t>Documents/ Personal or Business</t>
+  </si>
+  <si>
     <t>59</t>
   </si>
   <si>
@@ -1073,6 +1236,9 @@
     <t>68</t>
   </si>
   <si>
+    <t>Lawn/ Yard/ Garden Equipment</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
@@ -1082,6 +1248,9 @@
     <t>70</t>
   </si>
   <si>
+    <t>Medical/ Medical Lab Equipment</t>
+  </si>
+  <si>
     <t>71</t>
   </si>
   <si>
@@ -1103,6 +1272,9 @@
     <t>74</t>
   </si>
   <si>
+    <t>Photographic/ Optical Equipment</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
@@ -1112,9 +1284,15 @@
     <t>76</t>
   </si>
   <si>
+    <t>Recreational/ Sports Equipment</t>
+  </si>
+  <si>
     <t>77</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>78</t>
   </si>
   <si>
@@ -1124,6 +1302,9 @@
     <t>79</t>
   </si>
   <si>
+    <t>Watercraft Equipment/ Parts/ Accessories</t>
+  </si>
+  <si>
     <t>80</t>
   </si>
   <si>
@@ -1133,12 +1314,42 @@
     <t>88</t>
   </si>
   <si>
+    <t>pending inventory</t>
+  </si>
+  <si>
     <t>99</t>
   </si>
   <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>crack cocaine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>hashish</t>
+  </si>
+  <si>
+    <t>heroin</t>
+  </si>
+  <si>
+    <t>marijuana</t>
+  </si>
+  <si>
+    <t>morphine</t>
+  </si>
+  <si>
+    <t>opium</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
+    <t>other narcotics</t>
+  </si>
+  <si>
     <t>LSD</t>
   </si>
   <si>
@@ -1148,18 +1359,42 @@
     <t>K</t>
   </si>
   <si>
+    <t>other hallucinogens</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
+    <t>meth/amphetamines</t>
+  </si>
+  <si>
+    <t>other stimulants</t>
+  </si>
+  <si>
+    <t>barbiturates</t>
+  </si>
+  <si>
+    <t>other depressants</t>
+  </si>
+  <si>
+    <t>other drugs</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
+    <t>alcohol</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
+    <t>more than 3 types</t>
+  </si>
+  <si>
     <t>DU</t>
   </si>
   <si>
@@ -1223,6 +1458,9 @@
     <t>XX</t>
   </si>
   <si>
+    <t>Not Reported</t>
+  </si>
+  <si>
     <t>Business</t>
   </si>
   <si>
@@ -1307,9 +1545,33 @@
     <t>MALE</t>
   </si>
   <si>
+    <t>UNKNOWN - FOR UNIDENTIFIED ONLY</t>
+  </si>
+  <si>
+    <t>ASIAN:  A person having origins in any of the original peoples of the Far East, Southeast Asia, or the Indian subcontinent including, for example, Cambodia, China, India, Japan, Korea, Malaysia, Pakistan, the Philippine Islands, Thailand, and Vietnam.</t>
+  </si>
+  <si>
+    <t>BLACK or AFRICAN AMERICAN:  A person having origins in any of the black racial groups of Africa.</t>
+  </si>
+  <si>
+    <t>AMERICAN INDIAN or ALASKA NATIVE:  A person having origins in any of the original peoples of the Americas and maintaining cultural identification through tribal affiliations or community recognition.</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>WHITE:  A person having origins in any of the original peoples of Europe, North Africa, or Middle East.</t>
+  </si>
+  <si>
+    <t>NATIVE HAWAIIAN or OTHER PACIFIC ISLANDER:  A person having origins in any of the original peoples of Hawaii, Guam, Samoa, or other Pacific Islands.  The term "Native Hawaiian" does not include individuals who are native to the State of Hawaii by virtue of being born there.  However, the following Pacific Islander groups are included:  Carolinian, Fijian, Kosraean, Melanesian, Micronesian, Northern Mariana Islander, Palauan, Papua New Guinean, Ponapean (Pohnpelan), Polynesian, Solomon Islander, Tahitian, Tarawa Islander, Tokelauan, Tongan, Trukese (Chuukese), and Yapese.</t>
+  </si>
+  <si>
     <t>Hispanic or Latino</t>
   </si>
   <si>
+    <t>non Hispanic or Latino</t>
+  </si>
+  <si>
     <t>Nonresident</t>
   </si>
   <si>
@@ -1388,6 +1650,30 @@
     <t>Unable to Determine/Not Enough Information</t>
   </si>
   <si>
+    <t>apparent broken bones</t>
+  </si>
+  <si>
+    <t>possible internal injury</t>
+  </si>
+  <si>
+    <t>severe laceration</t>
+  </si>
+  <si>
+    <t>minor injury</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>other major injury</t>
+  </si>
+  <si>
+    <t>loss of teeth</t>
+  </si>
+  <si>
+    <t>unconscious</t>
+  </si>
+  <si>
     <t>AQ</t>
   </si>
   <si>
@@ -1601,527 +1887,38 @@
     <t>Referred to Other Authorities</t>
   </si>
   <si>
-    <t>SegmentActionTypeTypeID</t>
-  </si>
-  <si>
-    <t>SegmentActionTypeCode</t>
-  </si>
-  <si>
-    <t>SegmentActionTypeDescription</t>
-  </si>
-  <si>
-    <t>ClearedExceptionallyTypeID</t>
-  </si>
-  <si>
-    <t>ClearedExceptionallyCode</t>
-  </si>
-  <si>
-    <t>ClearedExceptionallyDescription</t>
-  </si>
-  <si>
-    <t>UCROffenseCodeTypeID</t>
-  </si>
-  <si>
-    <t>UCROffenseCodeDescription</t>
-  </si>
-  <si>
-    <t>UCROffenseCode</t>
-  </si>
-  <si>
-    <t>OffenderSuspectedOfUsingTypeID</t>
-  </si>
-  <si>
-    <t>OffenderSuspectedOfUsingCode</t>
-  </si>
-  <si>
-    <t>OffenderSuspectedOfUsingDescription</t>
-  </si>
-  <si>
-    <t>LocationTypeTypeID</t>
-  </si>
-  <si>
-    <t>LocationTypeCode</t>
-  </si>
-  <si>
-    <t>LocationTypeDescription</t>
-  </si>
-  <si>
-    <t>MethodOfEntryTypeID</t>
-  </si>
-  <si>
-    <t>MethodOfEntryCode</t>
-  </si>
-  <si>
-    <t>MethodOfEntryDescription</t>
-  </si>
-  <si>
-    <t>TypeOfCriminalActivityTypeID</t>
-  </si>
-  <si>
-    <t>TypeOfCriminalActivityCode</t>
-  </si>
-  <si>
-    <t>TypeOfCriminalActivityDescription</t>
-  </si>
-  <si>
-    <t>TypeOfWeaponForceInvolvedTypeID</t>
-  </si>
-  <si>
-    <t>TypeOfWeaponForceInvolvedCode</t>
-  </si>
-  <si>
-    <t>TypeOfWeaponForceInvolvedDescription</t>
-  </si>
-  <si>
-    <t>BiasMotivationTypeID</t>
-  </si>
-  <si>
-    <t>BiasMotivationCode</t>
-  </si>
-  <si>
-    <t>BiasMotivationDescription</t>
-  </si>
-  <si>
-    <t>TypePropertyLossEtcTypeID</t>
-  </si>
-  <si>
-    <t>TypePropertyLossEtcCode</t>
-  </si>
-  <si>
-    <t>TypePropertyLossEtcDescription</t>
-  </si>
-  <si>
-    <t>PropertyDescriptionTypeID</t>
-  </si>
-  <si>
-    <t>PropertyDescriptionCode</t>
-  </si>
-  <si>
-    <t>PropertyDescriptionDescription</t>
-  </si>
-  <si>
-    <t>SuspectedDrugTypeTypeID</t>
-  </si>
-  <si>
-    <t>SuspectedDrugTypeCode</t>
-  </si>
-  <si>
-    <t>SuspectedDrugTypeDescription</t>
-  </si>
-  <si>
-    <t>TypeDrugMeasurementTypeID</t>
-  </si>
-  <si>
-    <t>TypeDrugMeasurementCode</t>
-  </si>
-  <si>
-    <t>TypeDrugMeasurementDescription</t>
-  </si>
-  <si>
-    <t>TypeOfVictimTypeID</t>
-  </si>
-  <si>
-    <t>TypeOfVictimCode</t>
-  </si>
-  <si>
-    <t>TypeOfVictimDescription</t>
-  </si>
-  <si>
-    <t>OfficerActivityCircumstanceTypeID</t>
-  </si>
-  <si>
-    <t>OfficerActivityCircumstanceCode</t>
-  </si>
-  <si>
-    <t>OfficerActivityCircumstanceDescription</t>
-  </si>
-  <si>
-    <t>OfficerAssignmentTypeTypeID</t>
-  </si>
-  <si>
-    <t>OfficerAssignmentTypeCode</t>
-  </si>
-  <si>
-    <t>OfficerAssignmentTypeDescription</t>
-  </si>
-  <si>
-    <t>SexOfPersonTypeID</t>
-  </si>
-  <si>
-    <t>SexOfPersonCode</t>
-  </si>
-  <si>
-    <t>SexOfPersonDescription</t>
-  </si>
-  <si>
-    <t>RaceOfPersonTypeID</t>
-  </si>
-  <si>
-    <t>RaceOfPersonCode</t>
-  </si>
-  <si>
-    <t>RaceOfPersonDescription</t>
-  </si>
-  <si>
-    <t>EthnicityOfPersonTypeID</t>
-  </si>
-  <si>
-    <t>EthnicityOfPersonCode</t>
-  </si>
-  <si>
-    <t>EthnicityOfPersonDescription</t>
-  </si>
-  <si>
-    <t>ResidentStatusOfPersonTypeID</t>
-  </si>
-  <si>
-    <t>ResidentStatusOfPersonCode</t>
-  </si>
-  <si>
-    <t>ResidentStatusOfPersonDescription</t>
-  </si>
-  <si>
-    <t>AggravatedAssaultHomicideCircumstancesTypeID</t>
-  </si>
-  <si>
-    <t>AggravatedAssaultHomicideCircumstancesCode</t>
-  </si>
-  <si>
-    <t>AggravatedAssaultHomicideCircumstancesDescription</t>
-  </si>
-  <si>
-    <t>AdditionalJustifiableHomicideCircumstancesCode</t>
-  </si>
-  <si>
-    <t>AdditionalJustifiableHomicideCircumstancesDescription</t>
-  </si>
-  <si>
-    <t>TypeInjuryTypeID</t>
-  </si>
-  <si>
-    <t>TypeInjuryCode</t>
-  </si>
-  <si>
-    <t>TypeInjuryDescription</t>
-  </si>
-  <si>
-    <t>TypeOfArrestTypeID</t>
-  </si>
-  <si>
-    <t>TypeOfArrestCode</t>
-  </si>
-  <si>
-    <t>TypeOfArrestDescription</t>
-  </si>
-  <si>
-    <t>MultipleArresteeSegmentsIndicatorTypeID</t>
-  </si>
-  <si>
-    <t>MultipleArresteeSegmentsIndicatorCode</t>
-  </si>
-  <si>
-    <t>MultipleArresteeSegmentsIndicatorDescription</t>
-  </si>
-  <si>
-    <t>ArresteeWasArmedWithTypeID</t>
-  </si>
-  <si>
-    <t>ArresteeWasArmedWithCode</t>
-  </si>
-  <si>
-    <t>ArresteeWasArmedWithDescription</t>
-  </si>
-  <si>
-    <t>DispositionOfArresteeUnder18TypeID</t>
-  </si>
-  <si>
-    <t>DispositionOfArresteeUnder18Code</t>
-  </si>
-  <si>
-    <t>DispositionOfArresteeUnder18Description</t>
-  </si>
-  <si>
-    <t>AdditionalJustifiableHomicideCircumstancesID</t>
-  </si>
-  <si>
-    <t>None/Unknown Gang Involvement</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>Unknown/NA</t>
-  </si>
-  <si>
-    <t>Buses</t>
-  </si>
-  <si>
-    <t>Clothes / Furs</t>
-  </si>
-  <si>
-    <t>Computer Hardware / Software</t>
-  </si>
-  <si>
-    <t>Consumable Goods</t>
-  </si>
-  <si>
-    <t>Credit/Debit Cards</t>
-  </si>
-  <si>
-    <t>Drug Equipment</t>
-  </si>
-  <si>
-    <t>Farm Equipment</t>
-  </si>
-  <si>
-    <t>Firearms</t>
-  </si>
-  <si>
-    <t>Gambling Equipment</t>
-  </si>
-  <si>
-    <t>Industrial Equipment</t>
-  </si>
-  <si>
-    <t>Household Goods</t>
-  </si>
-  <si>
-    <t>Jewelry/Precious Metals</t>
-  </si>
-  <si>
-    <t>Livestock</t>
-  </si>
-  <si>
-    <t>Merchandise</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Negotiable Instruments</t>
-  </si>
-  <si>
-    <t>Non-Negotiable Instruments</t>
-  </si>
-  <si>
-    <t>Office Equipment</t>
-  </si>
-  <si>
-    <t>Other Motor Vehicles</t>
-  </si>
-  <si>
-    <t>Purse/Wallet</t>
-  </si>
-  <si>
-    <t>Recreational Vehicles</t>
-  </si>
-  <si>
-    <t>Structure / Single Dwelling</t>
-  </si>
-  <si>
-    <t>Structure / Other Residence</t>
-  </si>
-  <si>
-    <t>Structure / Other Commercial</t>
-  </si>
-  <si>
-    <t>Structure / Other Industrial</t>
-  </si>
-  <si>
-    <t>Structure / Public</t>
-  </si>
-  <si>
-    <t>Structure / Storage</t>
-  </si>
-  <si>
-    <t>Structure / Other</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>Trucks</t>
-  </si>
-  <si>
-    <t>Vehicle Parts</t>
-  </si>
-  <si>
-    <t>Watercraft</t>
-  </si>
-  <si>
-    <t>Aircraft Parts / Accessories</t>
-  </si>
-  <si>
-    <t>Artistic Supplies / Accessories</t>
-  </si>
-  <si>
-    <t>Camping/Hunting/Fishing Equipment/Supplies</t>
-  </si>
-  <si>
-    <t>Collections/Collectibles</t>
-  </si>
-  <si>
-    <t>Documents / Personal or Business</t>
-  </si>
-  <si>
-    <t>Lawn/Yard/Garden Equipment</t>
-  </si>
-  <si>
-    <t>Medical / Medical Lab Equipment</t>
-  </si>
-  <si>
-    <t>Photographic/Optical Equipment</t>
-  </si>
-  <si>
-    <t>Recreational/Sports Equipment</t>
-  </si>
-  <si>
-    <t>Watercraft Equipment/Parts/Accessories</t>
-  </si>
-  <si>
-    <t>Pending Inventory</t>
-  </si>
-  <si>
-    <t>Recordings-Audio/Visual</t>
-  </si>
-  <si>
-    <t>Radio/TV/VCR/DVD</t>
-  </si>
-  <si>
-    <t>None / Special Category</t>
-  </si>
-  <si>
-    <t>Not a drug</t>
-  </si>
-  <si>
-    <t>Crack Cocaine</t>
-  </si>
-  <si>
-    <t>Cocaine</t>
-  </si>
-  <si>
-    <t>Hashish</t>
-  </si>
-  <si>
-    <t>Heroin</t>
-  </si>
-  <si>
-    <t>Marijuana</t>
-  </si>
-  <si>
-    <t>Morphine</t>
-  </si>
-  <si>
-    <t>Opium</t>
-  </si>
-  <si>
-    <t>Other Hallucinogens</t>
-  </si>
-  <si>
-    <t>Other Narcotics</t>
-  </si>
-  <si>
-    <t>Meth/Amphetamines</t>
-  </si>
-  <si>
-    <t>Other Stimulants</t>
-  </si>
-  <si>
-    <t>Barbiturates</t>
-  </si>
-  <si>
-    <t>Other Depressants</t>
-  </si>
-  <si>
-    <t>Other Drugs</t>
-  </si>
-  <si>
-    <t>More than 3 types</t>
-  </si>
-  <si>
-    <t>Unknown/Not Reported</t>
-  </si>
-  <si>
-    <t>Non Hispanic or Latino</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Black / African American</t>
-  </si>
-  <si>
-    <t>American Indian or Alaska Native</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Native Hawaiian / Other Pacific Islander</t>
-  </si>
-  <si>
-    <t>VictimOffenderRelationshipType</t>
-  </si>
-  <si>
-    <t>VictimOffenderRelationshipTypeID</t>
-  </si>
-  <si>
-    <t>VictimOffenderRelationshipTypeCode</t>
-  </si>
-  <si>
-    <t>VictimOffenderRelationshipTypeDescription</t>
-  </si>
-  <si>
-    <t>Apparent Broken Bones</t>
-  </si>
-  <si>
-    <t>Possible Internal Injury</t>
-  </si>
-  <si>
-    <t>Severe Laceration</t>
-  </si>
-  <si>
-    <t>Minor Injury</t>
-  </si>
-  <si>
-    <t>Other Major Injury</t>
-  </si>
-  <si>
-    <t>Loss of Teeth</t>
-  </si>
-  <si>
-    <t>Unconscious</t>
-  </si>
-  <si>
-    <t>Prosecution Declined</t>
-  </si>
-  <si>
-    <t>In Custody of Other Jurisdiction</t>
-  </si>
-  <si>
-    <t>Victim Refused to Cooperate</t>
-  </si>
-  <si>
-    <t>Juvenile/No Custody</t>
-  </si>
-  <si>
-    <t>OffenseCategory1</t>
-  </si>
-  <si>
-    <t>Simple Assault</t>
-  </si>
-  <si>
-    <t>Serious Violence</t>
+    <t>40C</t>
+  </si>
+  <si>
+    <t>Purchasing Prostitution</t>
+  </si>
+  <si>
+    <t>64A</t>
+  </si>
+  <si>
+    <t>Human Trafficking, Commercial Sex Acts</t>
+  </si>
+  <si>
+    <t>64B</t>
+  </si>
+  <si>
+    <t>Human Trafficking, Involuntary Servitude</t>
+  </si>
+  <si>
+    <t>Animal Cruelty</t>
+  </si>
+  <si>
+    <t>26F</t>
+  </si>
+  <si>
+    <t>Identity Theft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2131,6 +1928,22 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2153,18 +1966,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="16">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
@@ -2467,18 +2311,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.875"/>
-    <col min="2" max="2" width="29.875"/>
-    <col min="3" max="1025" width="10.625"/>
+    <col min="1" max="1" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2486,233 +2329,236 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>673</v>
-      </c>
-      <c r="B25" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:B29">
+    <sortCondition ref="A2:A29"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -2720,335 +2566,329 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>543</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>544</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>11</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>12</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>13</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>14</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>15</v>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>16</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>21</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>22</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>23</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>24</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>25</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>26</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>27</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>32</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>33</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>41</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>51</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>52</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23">
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>61</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24">
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>62</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25">
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>71</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26">
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>72</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27">
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>88</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28">
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>99</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29">
         <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3061,30 +2901,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>546</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>547</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3092,10 +2929,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3103,10 +2940,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3114,10 +2951,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3125,10 +2962,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3136,10 +2973,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3147,10 +2984,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3158,18 +2995,18 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3182,775 +3019,772 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625"/>
-    <col min="2" max="2" width="10.875" style="3"/>
-    <col min="3" max="3" width="40.375"/>
-    <col min="4" max="1025" width="10.625"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>549</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>550</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="C27" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="C28" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="C29" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="C30" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="C31" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="C32" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="C33" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="C34" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="C35" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="C36" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="C37" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C38" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C39" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B42" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C42" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B43" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C43" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="B44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B45" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C45" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="B46" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C46" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="B47" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B49" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B50" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C54" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C56" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C57" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C58" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C59" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B60" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C60" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C63" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C64" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C51" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="B65" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C65" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C52" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="B66" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C66" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C53" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="B67" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C67" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C54" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="B68" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C68" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C55" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>69</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C56" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>70</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C57" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>71</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C58" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>72</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C59" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>73</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C60" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>74</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C61" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>75</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C62" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>76</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C63" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>77</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C64" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>78</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C65" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>79</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C66" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>80</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C67" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>88</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C68" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>99</v>
-      </c>
       <c r="B69" s="2" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="C69" t="s">
-        <v>649</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -3961,249 +3795,232 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>552</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>553</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="C9" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="C12" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="C13" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>371</v>
+        <v>444</v>
       </c>
       <c r="C20" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>99</v>
-      </c>
-      <c r="B21" t="s">
-        <v>601</v>
-      </c>
-      <c r="C21" t="s">
-        <v>650</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -4216,148 +4033,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>555</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>556</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="C3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="C8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>460</v>
       </c>
       <c r="C9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
       <c r="B11" t="s">
-        <v>390</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="C12" t="s">
-        <v>666</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -4370,125 +4181,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="60.375"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>558</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>559</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="C6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4499,131 +4305,125 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>561</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>562</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4631,10 +4431,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4642,18 +4442,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>99</v>
-      </c>
-      <c r="B13" t="s">
-        <v>602</v>
-      </c>
-      <c r="C13" t="s">
-        <v>279</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4664,116 +4453,100 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="74"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>564</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>565</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="C8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>601</v>
-      </c>
-      <c r="C9" t="s">
-        <v>279</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4786,60 +4559,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>567</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>568</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -4852,93 +4619,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>570</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>571</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>672</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4951,90 +4712,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>519</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>520</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5047,60 +4802,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.625"/>
-    <col min="2" max="2" width="7.5"/>
-    <col min="3" max="3" width="19.375"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>573</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>574</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -5113,60 +4862,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>576</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>577</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -5177,131 +4920,125 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>579</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5309,95 +5046,84 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>99</v>
-      </c>
-      <c r="B19" t="s">
-        <v>602</v>
-      </c>
-      <c r="C19" t="s">
-        <v>279</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5408,116 +5134,103 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="63.5"/>
-    <col min="4" max="1025" width="10.625"/>
+    <col min="3" max="3" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>599</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>582</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>601</v>
-      </c>
-      <c r="C9" t="s">
-        <v>279</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -5530,114 +5243,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="20.375"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>584</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>585</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>683</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -5650,313 +5358,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>674</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>675</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>539</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>541</v>
       </c>
       <c r="C3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>545</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>456</v>
+        <v>547</v>
       </c>
       <c r="C6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>549</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>551</v>
       </c>
       <c r="C8" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>462</v>
+        <v>553</v>
       </c>
       <c r="C9" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>555</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>466</v>
+        <v>557</v>
       </c>
       <c r="C11" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>559</v>
       </c>
       <c r="C12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>561</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>472</v>
+        <v>563</v>
       </c>
       <c r="C14" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>474</v>
+        <v>565</v>
       </c>
       <c r="C15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>567</v>
       </c>
       <c r="C16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>478</v>
+        <v>569</v>
       </c>
       <c r="C17" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>480</v>
+        <v>571</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>482</v>
+        <v>573</v>
       </c>
       <c r="C19" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>484</v>
+        <v>575</v>
       </c>
       <c r="C20" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>486</v>
+        <v>577</v>
       </c>
       <c r="C21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>488</v>
+        <v>579</v>
       </c>
       <c r="C22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>490</v>
+        <v>581</v>
       </c>
       <c r="C23" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>492</v>
+        <v>583</v>
       </c>
       <c r="C24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>494</v>
+        <v>585</v>
       </c>
       <c r="C25" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>496</v>
+        <v>587</v>
       </c>
       <c r="C26" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>498</v>
+        <v>589</v>
       </c>
       <c r="C27" t="s">
-        <v>499</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -5969,60 +5671,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>587</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>588</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>474</v>
       </c>
       <c r="C3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>502</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -6035,59 +5731,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="13.5"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>590</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>591</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6100,40 +5791,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="58.125"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>593</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>594</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6141,10 +5827,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6152,10 +5838,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6163,10 +5849,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6174,10 +5860,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6185,10 +5871,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6196,10 +5882,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6207,62 +5893,62 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>510</v>
+        <v>601</v>
       </c>
       <c r="C11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>513</v>
+        <v>604</v>
       </c>
       <c r="C13" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>515</v>
+        <v>606</v>
       </c>
       <c r="C14" t="s">
-        <v>516</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -6275,48 +5961,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="10.625"/>
-    <col min="3" max="3" width="25.125"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>596</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>597</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="C2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
-        <v>518</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -6329,93 +6010,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="181" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>522</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>523</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -6426,834 +6101,715 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="1025" width="10.625"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="55.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>525</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>527</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>131</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>220</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>250</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>265</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>270</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>351</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>352</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>370</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>391</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>392</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>393</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>394</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>401</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>510</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>510</v>
       </c>
-      <c r="C39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>280</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>361</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>520</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>520</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>901</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>902</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>903</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>904</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>905</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>906</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>907</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>908</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>909</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>910</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>990</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>277</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5">
+        <v>720</v>
+      </c>
+      <c r="C59" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C60" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C61" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C62" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C63" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C63">
+    <sortCondition ref="A2:A63"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -7263,71 +6819,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>528</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>529</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -7338,535 +6888,521 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>531</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>532</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B38" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B39" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B43" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B45" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>46</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C35" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>47</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>48</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>49</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>50</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C39" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>51</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>52</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C41" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>53</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>54</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C43" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>55</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C44" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>56</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>57</v>
-      </c>
       <c r="B46" s="2" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>99</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C47" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7877,62 +7413,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>534</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>535</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>601</v>
-      </c>
-      <c r="C4" t="s">
-        <v>603</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -7943,161 +7462,144 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>537</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>538</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>99</v>
-      </c>
-      <c r="B13" t="s">
-        <v>601</v>
-      </c>
-      <c r="C13" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -8110,30 +7612,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="10.625"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>540</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>541</v>
+        <v>36</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8141,10 +7640,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8152,10 +7651,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8163,10 +7662,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8174,10 +7673,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8185,10 +7684,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8196,10 +7695,10 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8207,10 +7706,10 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8218,10 +7717,10 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8229,10 +7728,10 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8240,10 +7739,10 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8251,10 +7750,10 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8262,10 +7761,10 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8273,10 +7772,10 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8284,10 +7783,10 @@
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8295,10 +7794,10 @@
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8306,10 +7805,10 @@
         <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8317,7 +7816,7 @@
         <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
